--- a/Challenge IV/handelswarenkalkulation_vxxx.xlsx
+++ b/Challenge IV/handelswarenkalkulation_vxxx.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipal\Downloads\Handelswarenkalkulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e34764e6b10fa3a5/Desktop/Rechnernetze-I_ITECH/Challenge IV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3444824E-FCE5-42C8-A740-6949C63957CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{3444824E-FCE5-42C8-A740-6949C63957CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7337A572-0FB0-4F9B-9B77-A37F6A61C34D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -899,7 +899,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="131">
   <si>
     <t>Bemerkung / Kommentar</t>
   </si>
@@ -1472,9 +1472,6 @@
     <t>MCU-PT</t>
   </si>
   <si>
-    <t>Gesamt mit IoT</t>
-  </si>
-  <si>
     <t>Gesamt Netzwerk</t>
   </si>
   <si>
@@ -1488,6 +1485,15 @@
   </si>
   <si>
     <t>Gesamt Selbstkosten</t>
+  </si>
+  <si>
+    <t>Stundenverrechnungssatz</t>
+  </si>
+  <si>
+    <t>Gesamt Angebot</t>
+  </si>
+  <si>
+    <t>Gesamt mit IoT (Gesamt Hardware)</t>
   </si>
 </sst>
 </file>
@@ -2029,7 +2035,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -2246,18 +2252,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2293,7 +2287,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -2303,6 +2296,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -5550,10 +5563,10 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="100"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -5564,10 +5577,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="98">
+      <c r="B4" s="122">
         <v>72727</v>
       </c>
-      <c r="C4" s="98"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -6223,10 +6236,10 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="100"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -6237,10 +6250,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="98">
+      <c r="B4" s="122">
         <v>72727</v>
       </c>
-      <c r="C4" s="98"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
       <c r="F4" s="51"/>
@@ -6915,10 +6928,10 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="100"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -6929,10 +6942,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="98">
+      <c r="B4" s="122">
         <v>72727</v>
       </c>
-      <c r="C4" s="98"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -9561,7 +9574,7 @@
   <dimension ref="A1:AX54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9574,10 +9587,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="121" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="96" t="s">
@@ -9587,9 +9600,9 @@
         <v>103</v>
       </c>
       <c r="E1" s="96" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="124" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="120" t="s">
         <v>104</v>
       </c>
       <c r="G1"/>
@@ -9638,265 +9651,265 @@
       <c r="AX1"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="114">
+      <c r="B2" s="111">
         <v>794.03</v>
       </c>
-      <c r="C2" s="115">
+      <c r="C2" s="112">
         <v>1390.35</v>
       </c>
-      <c r="D2" s="115">
+      <c r="D2" s="112">
         <v>6</v>
       </c>
-      <c r="E2" s="115">
+      <c r="E2" s="112">
         <f>B2*D2</f>
         <v>4764.18</v>
       </c>
-      <c r="F2" s="116">
+      <c r="F2" s="113">
         <f>C2*D2</f>
         <v>8342.0999999999985</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="117">
+      <c r="B3" s="114">
         <v>1170.3399999999999</v>
       </c>
-      <c r="C3" s="118">
+      <c r="C3">
         <v>2049.2600000000002</v>
       </c>
-      <c r="D3" s="118">
+      <c r="D3">
         <v>9</v>
       </c>
-      <c r="E3" s="118">
+      <c r="E3">
         <f t="shared" ref="E3:E12" si="0">B3*D3</f>
         <v>10533.06</v>
       </c>
-      <c r="F3" s="119">
+      <c r="F3" s="115">
         <f t="shared" ref="F3:F10" si="1">C3*D3</f>
         <v>18443.340000000004</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="117">
+      <c r="B4" s="114">
         <v>329.63</v>
       </c>
-      <c r="C4" s="118">
+      <c r="C4">
         <v>577.17999999999995</v>
       </c>
-      <c r="D4" s="118">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="118">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>988.89</v>
       </c>
-      <c r="F4" s="119">
+      <c r="F4" s="115">
         <f t="shared" ref="F4" si="2">C4*D4</f>
         <v>1731.54</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="117">
+      <c r="B5" s="114">
         <v>5808.67</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5">
         <v>10170.92</v>
       </c>
-      <c r="D5" s="118">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="118">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>17426.010000000002</v>
       </c>
-      <c r="F5" s="119">
+      <c r="F5" s="115">
         <f t="shared" si="1"/>
         <v>30512.760000000002</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="117">
+      <c r="B6" s="114">
         <v>657.13</v>
       </c>
-      <c r="C6" s="118">
+      <c r="C6">
         <v>1150.6400000000001</v>
       </c>
-      <c r="D6" s="118">
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6" s="118">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>6571.3</v>
       </c>
-      <c r="F6" s="119">
+      <c r="F6" s="115">
         <f t="shared" si="1"/>
         <v>11506.400000000001</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="117">
+      <c r="A7" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="114">
         <v>250.41</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7">
         <v>438.47</v>
       </c>
-      <c r="D7" s="118">
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="118">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>751.23</v>
       </c>
-      <c r="F7" s="119">
+      <c r="F7" s="115">
         <f t="shared" si="1"/>
         <v>1315.41</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="117">
+      <c r="B8" s="114">
         <v>317.18</v>
       </c>
-      <c r="C8" s="118">
+      <c r="C8">
         <v>555.38</v>
       </c>
-      <c r="D8" s="118">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" s="118">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>1903.08</v>
       </c>
-      <c r="F8" s="119">
+      <c r="F8" s="115">
         <f t="shared" si="1"/>
         <v>3332.2799999999997</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="117">
+      <c r="B9" s="114">
         <v>94.92</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9">
         <v>165.09</v>
       </c>
-      <c r="D9" s="118">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="118">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>94.92</v>
       </c>
-      <c r="F9" s="119">
+      <c r="F9" s="115">
         <f t="shared" ref="F9" si="3">C9*D9</f>
         <v>165.09</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="117">
+      <c r="B10" s="114">
         <v>10.01</v>
       </c>
-      <c r="C10" s="118">
+      <c r="C10">
         <v>17.53</v>
       </c>
-      <c r="D10" s="118">
+      <c r="D10">
         <v>25</v>
       </c>
-      <c r="E10" s="118">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>250.25</v>
       </c>
-      <c r="F10" s="119">
+      <c r="F10" s="115">
         <f t="shared" si="1"/>
         <v>438.25</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="117">
+      <c r="B11" s="114">
         <v>28.6</v>
       </c>
-      <c r="C11" s="118">
+      <c r="C11">
         <v>50.08</v>
       </c>
-      <c r="D11" s="118">
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" s="118">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>114.4</v>
       </c>
-      <c r="F11" s="119">
+      <c r="F11" s="115">
         <f t="shared" ref="F11:F23" si="4">C11*D11</f>
         <v>200.32</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="120">
+      <c r="B12" s="116">
         <v>38.36</v>
       </c>
-      <c r="C12" s="121">
+      <c r="C12" s="117">
         <v>67.17</v>
       </c>
-      <c r="D12" s="121">
+      <c r="D12" s="117">
         <v>5</v>
       </c>
-      <c r="E12" s="121">
+      <c r="E12" s="117">
         <f t="shared" si="0"/>
         <v>191.8</v>
       </c>
-      <c r="F12" s="122">
+      <c r="F12" s="118">
         <f t="shared" si="4"/>
         <v>335.85</v>
       </c>
     </row>
     <row r="13" spans="1:50" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="123" t="s">
-        <v>126</v>
+      <c r="A13" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="119" t="s">
+        <v>125</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="96">
         <f>SUM(E2:E12)</f>
         <v>43589.12000000001</v>
       </c>
-      <c r="F13" s="124">
+      <c r="F13" s="120">
         <f>SUM(F2:F12)</f>
         <v>76323.340000000026</v>
       </c>
@@ -9946,67 +9959,67 @@
       <c r="AX13"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="114">
+      <c r="B14" s="111">
         <v>22.09</v>
       </c>
-      <c r="C14" s="115">
+      <c r="C14" s="112">
         <v>38.68</v>
       </c>
-      <c r="D14" s="115">
+      <c r="D14" s="112">
         <v>1</v>
       </c>
-      <c r="E14" s="115">
+      <c r="E14" s="112">
         <f>B14*D14</f>
         <v>22.09</v>
       </c>
-      <c r="F14" s="116">
+      <c r="F14" s="113">
         <f t="shared" si="4"/>
         <v>38.68</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="120">
+      <c r="B15" s="116">
         <v>26.8</v>
       </c>
-      <c r="C15" s="121">
+      <c r="C15" s="117">
         <v>46.92</v>
       </c>
-      <c r="D15" s="121">
+      <c r="D15" s="117">
         <v>1</v>
       </c>
-      <c r="E15" s="121">
+      <c r="E15" s="117">
         <f>B15*D15</f>
         <v>26.8</v>
       </c>
-      <c r="F15" s="122">
+      <c r="F15" s="118">
         <f t="shared" ref="F15:F17" si="5">C15*D15</f>
         <v>46.92</v>
       </c>
     </row>
     <row r="16" spans="1:50" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="123" t="s">
-        <v>126</v>
-      </c>
       <c r="C16" s="97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="96">
         <f>SUM(E13:E15)</f>
         <v>43638.010000000009</v>
       </c>
-      <c r="F16" s="124">
+      <c r="F16" s="120">
         <f>SUM(F13:F15)</f>
         <v>76408.940000000017</v>
       </c>
@@ -10056,177 +10069,177 @@
       <c r="AX16"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="114">
+      <c r="B17" s="111">
         <v>136.81</v>
       </c>
-      <c r="C17" s="115">
+      <c r="C17" s="112">
         <v>239.55</v>
       </c>
-      <c r="D17" s="115">
+      <c r="D17" s="112">
         <v>2</v>
       </c>
-      <c r="E17" s="115">
+      <c r="E17" s="112">
         <f>B17*D17</f>
         <v>273.62</v>
       </c>
-      <c r="F17" s="116">
+      <c r="F17" s="113">
         <f t="shared" si="5"/>
         <v>479.1</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="117">
+      <c r="B18" s="114">
         <v>29.57</v>
       </c>
-      <c r="C18" s="118">
+      <c r="C18">
         <v>51.78</v>
       </c>
-      <c r="D18" s="118">
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" s="118">
+      <c r="E18">
         <f t="shared" ref="E18:E23" si="6">B18*D18</f>
         <v>59.14</v>
       </c>
-      <c r="F18" s="119">
+      <c r="F18" s="115">
         <f t="shared" si="4"/>
         <v>103.56</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="111" t="s">
+      <c r="A19" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="117">
+      <c r="B19" s="114">
         <v>7.2</v>
       </c>
-      <c r="C19" s="118">
+      <c r="C19">
         <v>12.61</v>
       </c>
-      <c r="D19" s="118">
+      <c r="D19">
         <v>2</v>
       </c>
-      <c r="E19" s="118">
+      <c r="E19">
         <f t="shared" si="6"/>
         <v>14.4</v>
       </c>
-      <c r="F19" s="119">
+      <c r="F19" s="115">
         <f t="shared" si="4"/>
         <v>25.22</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="117">
+      <c r="B20" s="114">
         <v>16.170000000000002</v>
       </c>
-      <c r="C20" s="118">
+      <c r="C20">
         <v>28.31</v>
       </c>
-      <c r="D20" s="118">
+      <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" s="118">
+      <c r="E20">
         <f t="shared" si="6"/>
         <v>32.340000000000003</v>
       </c>
-      <c r="F20" s="119">
+      <c r="F20" s="115">
         <f t="shared" si="4"/>
         <v>56.62</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="117">
+      <c r="B21" s="114">
         <v>8.5</v>
       </c>
-      <c r="C21" s="118">
+      <c r="C21">
         <v>14.98</v>
       </c>
-      <c r="D21" s="118">
+      <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21" s="118">
+      <c r="E21">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="F21" s="119">
+      <c r="F21" s="115">
         <f t="shared" si="4"/>
         <v>59.92</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="117">
+      <c r="B22" s="114">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22">
         <v>7.7</v>
       </c>
-      <c r="D22" s="118">
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22" s="118">
+      <c r="E22">
         <f t="shared" si="6"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="F22" s="119">
+      <c r="F22" s="115">
         <f t="shared" si="4"/>
         <v>15.4</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="120">
+      <c r="B23" s="116">
         <v>10.01</v>
       </c>
-      <c r="C23" s="121">
+      <c r="C23" s="117">
         <v>17.53</v>
       </c>
-      <c r="D23" s="121">
+      <c r="D23" s="117">
         <v>11</v>
       </c>
-      <c r="E23" s="121">
+      <c r="E23" s="117">
         <f t="shared" si="6"/>
         <v>110.11</v>
       </c>
-      <c r="F23" s="122">
+      <c r="F23" s="118">
         <f t="shared" si="4"/>
         <v>192.83</v>
       </c>
     </row>
     <row r="24" spans="1:50" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="113" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="123" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="97" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="97" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="96">
+      <c r="A24" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="127" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="127" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="112">
         <f>SUM(E16:E23)</f>
         <v>44170.420000000013</v>
       </c>
-      <c r="F24" s="124">
+      <c r="F24" s="113">
         <f>SUM(F16:F23)</f>
         <v>77341.590000000011</v>
       </c>
@@ -10276,94 +10289,134 @@
       <c r="AX24"/>
     </row>
     <row r="25" spans="1:50" ht="15" x14ac:dyDescent="0.25">
-      <c r="H25" s="107"/>
+      <c r="A25" s="125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="128">
+        <v>75</v>
+      </c>
+      <c r="C25" s="128">
+        <v>100</v>
+      </c>
+      <c r="D25" s="96">
+        <v>100</v>
+      </c>
+      <c r="E25" s="96">
+        <f>B25*D25</f>
+        <v>7500</v>
+      </c>
+      <c r="F25" s="120">
+        <f>C25*D25</f>
+        <v>10000</v>
+      </c>
+      <c r="H25" s="104"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="H26" s="108"/>
+      <c r="A26" s="125" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="127" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="127" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="127" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="96">
+        <f>E24+E25</f>
+        <v>51670.420000000013</v>
+      </c>
+      <c r="F26" s="120">
+        <f>F24+F25</f>
+        <v>87341.590000000011</v>
+      </c>
+      <c r="H26" s="105"/>
     </row>
     <row r="27" spans="1:50" ht="15" x14ac:dyDescent="0.25">
-      <c r="H27" s="109"/>
+      <c r="H27" s="106"/>
     </row>
     <row r="28" spans="1:50" ht="15" x14ac:dyDescent="0.25">
-      <c r="H28" s="109"/>
+      <c r="H28" s="106"/>
     </row>
     <row r="29" spans="1:50" ht="15" x14ac:dyDescent="0.25">
-      <c r="H29" s="109"/>
+      <c r="H29" s="106"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="H30" s="103"/>
+      <c r="H30" s="100"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="H31" s="102"/>
+      <c r="H31" s="99"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="H32" s="103"/>
+      <c r="H32" s="100"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H33" s="103"/>
+      <c r="H33" s="100"/>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H34" s="102"/>
+      <c r="H34" s="99"/>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="103"/>
+      <c r="H35" s="100"/>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="103"/>
+      <c r="H36" s="100"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="104"/>
+      <c r="H37" s="101"/>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="101"/>
+      <c r="H38" s="98"/>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H39" s="104"/>
+      <c r="H39" s="101"/>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="101"/>
+      <c r="H40" s="98"/>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H41" s="104"/>
+      <c r="H41" s="101"/>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H42" s="101"/>
+      <c r="H42" s="98"/>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H43" s="101"/>
+      <c r="H43" s="98"/>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H44" s="105"/>
+      <c r="H44" s="102"/>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H45" s="101"/>
+      <c r="H45" s="98"/>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H46" s="101"/>
+      <c r="H46" s="98"/>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H47" s="105"/>
+      <c r="H47" s="102"/>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H48" s="101"/>
+      <c r="H48" s="98"/>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H49" s="104"/>
+      <c r="H49" s="101"/>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H50" s="101"/>
+      <c r="H50" s="98"/>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H51" s="104"/>
+      <c r="H51" s="101"/>
     </row>
     <row r="52" spans="8:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="H52" s="106"/>
+      <c r="H52" s="103"/>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H53" s="104"/>
+      <c r="H53" s="101"/>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H54" s="101"/>
+      <c r="H54" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Challenge IV/handelswarenkalkulation_vxxx.xlsx
+++ b/Challenge IV/handelswarenkalkulation_vxxx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e34764e6b10fa3a5/Desktop/Rechnernetze-I_ITECH/Challenge IV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{3444824E-FCE5-42C8-A740-6949C63957CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7337A572-0FB0-4F9B-9B77-A37F6A61C34D}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{3444824E-FCE5-42C8-A740-6949C63957CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4120705-7077-4F94-A925-C205D5AFAB54}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorwärtskalkulation" sheetId="1" r:id="rId1"/>
@@ -2035,7 +2035,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -2296,6 +2296,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2308,14 +2314,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -5267,6 +5265,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5563,10 +5565,10 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="124"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -5577,10 +5579,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="122">
+      <c r="B4" s="124">
         <v>72727</v>
       </c>
-      <c r="C4" s="122"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -6236,10 +6238,10 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="124"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -6250,10 +6252,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="122">
+      <c r="B4" s="124">
         <v>72727</v>
       </c>
-      <c r="C4" s="122"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
       <c r="F4" s="51"/>
@@ -6928,10 +6930,10 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="124"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -6942,10 +6944,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="122">
+      <c r="B4" s="124">
         <v>72727</v>
       </c>
-      <c r="C4" s="122"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -9574,7 +9576,7 @@
   <dimension ref="A1:AX54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10226,13 +10228,13 @@
       <c r="A24" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="122" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="127" t="s">
+      <c r="D24" s="123" t="s">
         <v>125</v>
       </c>
       <c r="E24" s="112">
@@ -10289,13 +10291,13 @@
       <c r="AX24"/>
     </row>
     <row r="25" spans="1:50" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="128">
+      <c r="B25" s="96">
         <v>75</v>
       </c>
-      <c r="C25" s="128">
+      <c r="C25" s="96">
         <v>100</v>
       </c>
       <c r="D25" s="96">
@@ -10312,16 +10314,16 @@
       <c r="H25" s="104"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="125" t="s">
+      <c r="A26" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="127" t="s">
+      <c r="D26" s="97" t="s">
         <v>125</v>
       </c>
       <c r="E26" s="96">

--- a/Challenge IV/handelswarenkalkulation_vxxx.xlsx
+++ b/Challenge IV/handelswarenkalkulation_vxxx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e34764e6b10fa3a5/Desktop/Rechnernetze-I_ITECH/Challenge IV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{3444824E-FCE5-42C8-A740-6949C63957CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4120705-7077-4F94-A925-C205D5AFAB54}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{3444824E-FCE5-42C8-A740-6949C63957CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{528F2C69-FAED-4CB5-9184-A52925FDFDFA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -899,7 +899,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="138">
   <si>
     <t>Bemerkung / Kommentar</t>
   </si>
@@ -1418,60 +1418,6 @@
     <t>Gesamt Brutto-Listenverkaufspreis</t>
   </si>
   <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>Router</t>
-  </si>
-  <si>
-    <t>Smoke Detector</t>
-  </si>
-  <si>
-    <t>Air Cooler</t>
-  </si>
-  <si>
-    <t>Heating Element</t>
-  </si>
-  <si>
-    <t>Lawn Sprinkler</t>
-  </si>
-  <si>
-    <t>Humidity Monitor/Sensor</t>
-  </si>
-  <si>
-    <t>Solar Panel</t>
-  </si>
-  <si>
-    <t>Smartphone</t>
-  </si>
-  <si>
-    <t>Light</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>Kabel Copper Straight-Through</t>
-  </si>
-  <si>
-    <t>Kabel Copper Crossover</t>
-  </si>
-  <si>
-    <t>Kabel Serial DCE</t>
-  </si>
-  <si>
-    <t>MCU-PT</t>
-  </si>
-  <si>
     <t>Gesamt Netzwerk</t>
   </si>
   <si>
@@ -1481,9 +1427,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>Access Point</t>
-  </si>
-  <si>
     <t>Gesamt Selbstkosten</t>
   </si>
   <si>
@@ -1494,19 +1437,98 @@
   </si>
   <si>
     <t>Gesamt mit IoT (Gesamt Hardware)</t>
+  </si>
+  <si>
+    <t>Switch (Cisco WS-C2960X-24PD-L)</t>
+  </si>
+  <si>
+    <t>Router (Cisco CISCO2811 Netzwerk-Router)</t>
+  </si>
+  <si>
+    <t>Kabel Copper Straight-Through (Cat6a Patchkabel, Snagless Abgeschirmtes SFTP RJ45 LAN Kabel)</t>
+  </si>
+  <si>
+    <t>Kabel Copper Crossover (Cisco SFP-H10GB-CU7M kompatibles 10G SFP+ passives Twinax Kupfer DAC)</t>
+  </si>
+  <si>
+    <t>Kabel Serial DCE (Cisco - CAB-SS-V35FC= - V.35-Kabel (DCE) - Kabel - Digital / Daten Serial-Kabel)</t>
+  </si>
+  <si>
+    <t>Server (Lenovo ThinkSystem SR645 AMD EPYC 7532 32C 200W 2.4GHz Processor w/o Fan)</t>
+  </si>
+  <si>
+    <t>Laptop (Lenovo ThinkPad T16 Gen 2)</t>
+  </si>
+  <si>
+    <t>PC (Lenovo ThinkCentre M70s Gen 3)</t>
+  </si>
+  <si>
+    <t>Smartphone (BlackBerry Key2 128GB [Dual-Sim] schwarz)</t>
+  </si>
+  <si>
+    <t>Smoke Detector (Rauchwarnmelder Hekatron Genius Hx)</t>
+  </si>
+  <si>
+    <t>Light (Philips Hue LED White Filament ST64 E27 7 Watt 2100 Kelvin 600 Lumen)</t>
+  </si>
+  <si>
+    <t>MCU-PT (Rock 5 Model B 8GB)</t>
+  </si>
+  <si>
+    <t>Lawn Sprinkler (1 Satz 8 Kopf Automatische Bewässerungspumpe Controller)</t>
+  </si>
+  <si>
+    <t>Heating Element (Heizlüfter / Elektro-Gebläse-Heizung "Palma TWIN" Basic mit manuellem Thermostat - 2 x 1000 Watt)</t>
+  </si>
+  <si>
+    <t>Air Cooler (Aircooler, Luftkühler, Luftbefeuchter, Ventilatorkühler PAE 80)</t>
+  </si>
+  <si>
+    <t>Solar Panel (Zweiachsiges Solar Tracking System mit Solar Tracker)</t>
+  </si>
+  <si>
+    <t>Humidity Monitor/Sensor (eMylo Wlan Thermometer mit APP)</t>
+  </si>
+  <si>
+    <t>Ernte-Roboter (Organifarms Ernteroboter Berry)</t>
+  </si>
+  <si>
+    <t>Access Point (Cisco Access-Point Business 150AX)</t>
+  </si>
+  <si>
+    <t>Kabel-Verbindung zur Erde (Cat6a Patchkabel, Snagless Abgeschirmtes SFTP RJ45 LAN Kabel)</t>
+  </si>
+  <si>
+    <t>Länge = (1/4 Umfang Mars + Radius Mars + 1/4 Umfang Erde + Radius Erde + max Entfernung Mars Erde) * 105% Toleranz</t>
+  </si>
+  <si>
+    <t>Mars Umfang</t>
+  </si>
+  <si>
+    <t>Mars Radius</t>
+  </si>
+  <si>
+    <t>Erde Umfang</t>
+  </si>
+  <si>
+    <t>Erde Radius</t>
+  </si>
+  <si>
+    <t>max Entfernung Mars zur Erde</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;\ \ "/>
     <numFmt numFmtId="167" formatCode="0.0\ %"/>
     <numFmt numFmtId="168" formatCode="0.00\ %\ "/>
     <numFmt numFmtId="169" formatCode="0.0000\ \ "/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="43" x14ac:knownFonts="1">
     <font>
@@ -2035,7 +2057,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -2283,25 +2305,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2313,6 +2320,28 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5207,13 +5236,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>60959</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5565,10 +5594,10 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="125" t="s">
+      <c r="I2" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="126"/>
+      <c r="J2" s="117"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -5579,10 +5608,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="124">
+      <c r="B4" s="115">
         <v>72727</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -5619,11 +5648,11 @@
         <v>73</v>
       </c>
       <c r="E7" s="23">
-        <v>4.76</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="F7" s="21">
         <f>E7</f>
-        <v>4.76</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -5643,7 +5672,7 @@
       </c>
       <c r="F8" s="13">
         <f>F7*E8/(1+E8)</f>
-        <v>0.76</v>
+        <v>0.17499159663865549</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -5661,7 +5690,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="21">
         <f>F7-F8</f>
-        <v>4</v>
+        <v>0.9210084033613446</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -5739,7 +5768,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="21">
         <f>F9-F10-F11+F12</f>
-        <v>4</v>
+        <v>0.9210084033613446</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -5777,7 +5806,7 @@
       <c r="E15" s="20"/>
       <c r="F15" s="21">
         <f>F13-F14</f>
-        <v>4</v>
+        <v>0.9210084033613446</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -5815,7 +5844,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="21">
         <f>F15+F16</f>
-        <v>4</v>
+        <v>0.9210084033613446</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -5835,7 +5864,7 @@
       </c>
       <c r="F18" s="13">
         <f>F17*E18</f>
-        <v>0.4</v>
+        <v>9.2100840336134471E-2</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -5853,7 +5882,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="21">
         <f>F17+F18</f>
-        <v>4.4000000000000004</v>
+        <v>1.0131092436974791</v>
       </c>
       <c r="G19" s="11"/>
     </row>
@@ -5873,7 +5902,7 @@
       </c>
       <c r="F20" s="13">
         <f>F19*E20</f>
-        <v>1.32</v>
+        <v>0.30393277310924371</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -5891,7 +5920,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="21">
         <f>F19+F20</f>
-        <v>5.7200000000000006</v>
+        <v>1.3170420168067229</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -5911,7 +5940,7 @@
       </c>
       <c r="F22" s="14">
         <f>F21/(1-E22-E23)*E22</f>
-        <v>0.30752688172043019</v>
+        <v>7.0808710581006615E-2</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -5931,7 +5960,7 @@
       </c>
       <c r="F23" s="14">
         <f>F21/(1-E23-E22)*E23</f>
-        <v>0.12301075268817206</v>
+        <v>2.8323484232402649E-2</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -5949,7 +5978,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="22">
         <f>F21+F22+F23</f>
-        <v>6.1505376344086029</v>
+        <v>1.4161742116201324</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -5969,7 +5998,7 @@
       </c>
       <c r="F25" s="14">
         <f>F24/(1-E25)*E25</f>
-        <v>0.32371250707413701</v>
+        <v>7.4535484822112238E-2</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -5987,7 +6016,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="21">
         <f>F24+F25</f>
-        <v>6.4742501414827398</v>
+        <v>1.4907096964422446</v>
       </c>
       <c r="G26" s="11"/>
       <c r="I26" s="1" t="s">
@@ -6010,7 +6039,7 @@
       </c>
       <c r="F27" s="13">
         <f>F26*E27</f>
-        <v>1.2301075268817205</v>
+        <v>0.28323484232402646</v>
       </c>
       <c r="G27" s="11"/>
       <c r="I27" s="46" t="s">
@@ -6031,7 +6060,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="21">
         <f>F26+F27</f>
-        <v>7.7043576683644606</v>
+        <v>1.7739445387662711</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -6066,7 +6095,7 @@
       </c>
       <c r="F32" s="29">
         <f>F26/F17</f>
-        <v>1.618562535370685</v>
+        <v>1.6185625353706852</v>
       </c>
       <c r="G32" s="30"/>
     </row>
@@ -6092,7 +6121,7 @@
       </c>
       <c r="F34" s="29">
         <f>F28/F17</f>
-        <v>1.9260894170911151</v>
+        <v>1.9260894170911154</v>
       </c>
       <c r="G34" s="30"/>
     </row>
@@ -6118,7 +6147,7 @@
       </c>
       <c r="F36" s="34">
         <f>F26-F17</f>
-        <v>2.4742501414827398</v>
+        <v>0.56970129308090001</v>
       </c>
       <c r="G36" s="33"/>
     </row>
@@ -6144,7 +6173,7 @@
       </c>
       <c r="F38" s="35">
         <f>F36/F26</f>
-        <v>0.38216783216783223</v>
+        <v>0.38216783216783234</v>
       </c>
       <c r="G38" s="33"/>
     </row>
@@ -6170,7 +6199,7 @@
       </c>
       <c r="F40" s="35">
         <f>F36/F17</f>
-        <v>0.61856253537068495</v>
+        <v>0.61856253537068517</v>
       </c>
       <c r="G40" s="33"/>
     </row>
@@ -6238,10 +6267,10 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="125" t="s">
+      <c r="I2" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="126"/>
+      <c r="J2" s="117"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -6252,10 +6281,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="124">
+      <c r="B4" s="115">
         <v>72727</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
       <c r="F4" s="51"/>
@@ -6930,10 +6959,10 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="125" t="s">
+      <c r="I2" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="126"/>
+      <c r="J2" s="117"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -6944,10 +6973,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="124">
+      <c r="B4" s="115">
         <v>72727</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -9573,17 +9602,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0E1454-62F5-4677-9A74-9AE140F0C5B3}">
-  <dimension ref="A1:AX54"/>
+  <dimension ref="A1:AX55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="103.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="48" customWidth="1"/>
   </cols>
@@ -9592,7 +9623,7 @@
       <c r="A1" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="114" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="96" t="s">
@@ -9602,9 +9633,9 @@
         <v>103</v>
       </c>
       <c r="E1" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="120" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="113" t="s">
         <v>104</v>
       </c>
       <c r="G1"/>
@@ -9654,596 +9685,596 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="111">
+        <v>119</v>
+      </c>
+      <c r="B2" s="131">
         <v>794.03</v>
       </c>
-      <c r="C2" s="112">
+      <c r="C2" s="120">
         <v>1390.35</v>
       </c>
-      <c r="D2" s="112">
-        <v>6</v>
-      </c>
-      <c r="E2" s="112">
+      <c r="D2" s="111">
+        <v>4</v>
+      </c>
+      <c r="E2" s="120">
         <f>B2*D2</f>
-        <v>4764.18</v>
-      </c>
-      <c r="F2" s="113">
+        <v>3176.12</v>
+      </c>
+      <c r="F2" s="121">
         <f>C2*D2</f>
-        <v>8342.0999999999985</v>
+        <v>5561.4</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="114">
+        <v>118</v>
+      </c>
+      <c r="B3" s="132">
         <v>1170.3399999999999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="122">
         <v>2049.2600000000002</v>
       </c>
       <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E12" si="0">B3*D3</f>
-        <v>10533.06</v>
-      </c>
-      <c r="F3" s="115">
-        <f t="shared" ref="F3:F10" si="1">C3*D3</f>
-        <v>18443.340000000004</v>
+        <v>4</v>
+      </c>
+      <c r="E3" s="122">
+        <f t="shared" ref="E3:E11" si="0">B3*D3</f>
+        <v>4681.3599999999997</v>
+      </c>
+      <c r="F3" s="123">
+        <f t="shared" ref="F3:F9" si="1">C3*D3</f>
+        <v>8197.0400000000009</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="108" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="114">
+        <v>120</v>
+      </c>
+      <c r="B4" s="132">
         <v>329.63</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="122">
         <v>577.17999999999995</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="122">
         <f t="shared" si="0"/>
-        <v>988.89</v>
-      </c>
-      <c r="F4" s="115">
+        <v>1318.52</v>
+      </c>
+      <c r="F4" s="123">
         <f t="shared" ref="F4" si="2">C4*D4</f>
-        <v>1731.54</v>
+        <v>2308.7199999999998</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="114">
+        <v>117</v>
+      </c>
+      <c r="B5" s="132">
         <v>5808.67</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="122">
         <v>10170.92</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="122">
         <f t="shared" si="0"/>
         <v>17426.010000000002</v>
       </c>
-      <c r="F5" s="115">
+      <c r="F5" s="123">
         <f t="shared" si="1"/>
         <v>30512.760000000002</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="114">
-        <v>657.13</v>
-      </c>
-      <c r="C6">
-        <v>1150.6400000000001</v>
+        <v>112</v>
+      </c>
+      <c r="B6" s="132">
+        <v>1870</v>
+      </c>
+      <c r="C6" s="122">
+        <v>3274.35</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="122">
         <f t="shared" si="0"/>
-        <v>6571.3</v>
-      </c>
-      <c r="F6" s="115">
+        <v>18700</v>
+      </c>
+      <c r="F6" s="123">
         <f t="shared" si="1"/>
-        <v>11506.400000000001</v>
+        <v>32743.5</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="108" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="114">
-        <v>250.41</v>
-      </c>
-      <c r="C7">
-        <v>438.47</v>
+        <v>130</v>
+      </c>
+      <c r="B7" s="132">
+        <v>116.59</v>
+      </c>
+      <c r="C7" s="122">
+        <v>204.15</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="122">
         <f t="shared" si="0"/>
-        <v>751.23</v>
-      </c>
-      <c r="F7" s="115">
+        <v>349.77</v>
+      </c>
+      <c r="F7" s="123">
         <f t="shared" si="1"/>
-        <v>1315.41</v>
+        <v>612.45000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="114">
+        <v>113</v>
+      </c>
+      <c r="B8" s="132">
         <v>317.18</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="122">
         <v>555.38</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="122">
         <f t="shared" si="0"/>
         <v>1903.08</v>
       </c>
-      <c r="F8" s="115">
+      <c r="F8" s="123">
         <f t="shared" si="1"/>
         <v>3332.2799999999997</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="114">
-        <v>94.92</v>
-      </c>
-      <c r="C9">
-        <v>165.09</v>
+        <v>114</v>
+      </c>
+      <c r="B9" s="132">
+        <v>10.01</v>
+      </c>
+      <c r="C9" s="122">
+        <v>17.53</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="E9" s="122">
         <f t="shared" si="0"/>
-        <v>94.92</v>
-      </c>
-      <c r="F9" s="115">
-        <f t="shared" ref="F9" si="3">C9*D9</f>
-        <v>165.09</v>
+        <v>250.25</v>
+      </c>
+      <c r="F9" s="123">
+        <f t="shared" si="1"/>
+        <v>438.25</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="108" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="114">
-        <v>10.01</v>
-      </c>
-      <c r="C10">
-        <v>17.53</v>
+        <v>115</v>
+      </c>
+      <c r="B10" s="132">
+        <v>28.6</v>
+      </c>
+      <c r="C10" s="122">
+        <v>50.08</v>
       </c>
       <c r="D10">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>250.25</v>
-      </c>
-      <c r="F10" s="115">
-        <f t="shared" si="1"/>
-        <v>438.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A11" s="108" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="114">
-        <v>28.6</v>
-      </c>
-      <c r="C11">
-        <v>50.08</v>
-      </c>
-      <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11">
+      <c r="E10" s="122">
         <f t="shared" si="0"/>
         <v>114.4</v>
       </c>
-      <c r="F11" s="115">
-        <f t="shared" ref="F11:F23" si="4">C11*D11</f>
+      <c r="F10" s="123">
+        <f t="shared" ref="F10:F23" si="3">C10*D10</f>
         <v>200.32</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A12" s="109" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="116">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A11" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="133">
         <v>38.36</v>
       </c>
-      <c r="C12" s="117">
+      <c r="C11" s="124">
         <v>67.17</v>
       </c>
-      <c r="D12" s="117">
+      <c r="D11" s="112">
         <v>5</v>
       </c>
-      <c r="E12" s="117">
+      <c r="E11" s="124">
         <f t="shared" si="0"/>
         <v>191.8</v>
       </c>
-      <c r="F12" s="118">
-        <f t="shared" si="4"/>
+      <c r="F11" s="125">
+        <f t="shared" si="3"/>
         <v>335.85</v>
       </c>
     </row>
-    <row r="13" spans="1:50" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="110" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="96">
-        <f>SUM(E2:E12)</f>
-        <v>43589.12000000001</v>
-      </c>
-      <c r="F13" s="120">
-        <f>SUM(F2:F12)</f>
-        <v>76323.340000000026</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-      <c r="AH13"/>
-      <c r="AI13"/>
-      <c r="AJ13"/>
-      <c r="AK13"/>
-      <c r="AL13"/>
-      <c r="AM13"/>
-      <c r="AN13"/>
-      <c r="AO13"/>
-      <c r="AP13"/>
-      <c r="AQ13"/>
-      <c r="AR13"/>
-      <c r="AS13"/>
-      <c r="AT13"/>
-      <c r="AU13"/>
-      <c r="AV13"/>
-      <c r="AW13"/>
-      <c r="AX13"/>
+    <row r="12" spans="1:50" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="135" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="126">
+        <f>SUM(E2:E11)</f>
+        <v>48111.310000000005</v>
+      </c>
+      <c r="F12" s="127">
+        <f>SUM(F2:F11)</f>
+        <v>84242.57</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A13" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="131">
+        <v>22.09</v>
+      </c>
+      <c r="C13" s="120">
+        <v>38.68</v>
+      </c>
+      <c r="D13" s="111">
+        <v>1</v>
+      </c>
+      <c r="E13" s="120">
+        <f>B13*D13</f>
+        <v>22.09</v>
+      </c>
+      <c r="F13" s="121">
+        <f t="shared" si="3"/>
+        <v>38.68</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A14" s="107" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="111">
-        <v>22.09</v>
-      </c>
-      <c r="C14" s="112">
-        <v>38.68</v>
+      <c r="A14" s="109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="133">
+        <v>26.8</v>
+      </c>
+      <c r="C14" s="124">
+        <v>46.92</v>
       </c>
       <c r="D14" s="112">
         <v>1</v>
       </c>
-      <c r="E14" s="112">
+      <c r="E14" s="124">
         <f>B14*D14</f>
-        <v>22.09</v>
-      </c>
-      <c r="F14" s="113">
+        <v>26.8</v>
+      </c>
+      <c r="F14" s="125">
+        <f t="shared" ref="F14:F16" si="4">C14*D14</f>
+        <v>46.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="135" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="126">
+        <f>SUM(E12:E14)</f>
+        <v>48160.200000000004</v>
+      </c>
+      <c r="F15" s="127">
+        <f>SUM(F12:F14)</f>
+        <v>84328.17</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
+      <c r="AT15"/>
+      <c r="AU15"/>
+      <c r="AV15"/>
+      <c r="AW15"/>
+      <c r="AX15"/>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A16" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="120">
+        <v>136.81</v>
+      </c>
+      <c r="C16" s="120">
+        <v>239.55</v>
+      </c>
+      <c r="D16" s="111">
+        <v>2</v>
+      </c>
+      <c r="E16" s="120">
+        <f>B16*D16</f>
+        <v>273.62</v>
+      </c>
+      <c r="F16" s="121">
         <f t="shared" si="4"/>
-        <v>38.68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A15" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="116">
-        <v>26.8</v>
-      </c>
-      <c r="C15" s="117">
-        <v>46.92</v>
-      </c>
-      <c r="D15" s="117">
-        <v>1</v>
-      </c>
-      <c r="E15" s="117">
-        <f>B15*D15</f>
-        <v>26.8</v>
-      </c>
-      <c r="F15" s="118">
-        <f t="shared" ref="F15:F17" si="5">C15*D15</f>
-        <v>46.92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="110" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="96">
-        <f>SUM(E13:E15)</f>
-        <v>43638.010000000009</v>
-      </c>
-      <c r="F16" s="120">
-        <f>SUM(F13:F15)</f>
-        <v>76408.940000000017</v>
-      </c>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16"/>
-      <c r="AK16"/>
-      <c r="AL16"/>
-      <c r="AM16"/>
-      <c r="AN16"/>
-      <c r="AO16"/>
-      <c r="AP16"/>
-      <c r="AQ16"/>
-      <c r="AR16"/>
-      <c r="AS16"/>
-      <c r="AT16"/>
-      <c r="AU16"/>
-      <c r="AV16"/>
-      <c r="AW16"/>
-      <c r="AX16"/>
+        <v>479.1</v>
+      </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="111">
-        <v>136.81</v>
-      </c>
-      <c r="C17" s="112">
-        <v>239.55</v>
-      </c>
-      <c r="D17" s="112">
+      <c r="A17" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="128">
+        <v>249.53</v>
+      </c>
+      <c r="C17" s="122">
+        <v>436.93</v>
+      </c>
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" s="112">
-        <f>B17*D17</f>
-        <v>273.62</v>
-      </c>
-      <c r="F17" s="113">
-        <f t="shared" si="5"/>
-        <v>479.1</v>
+      <c r="E17" s="122">
+        <f t="shared" ref="E17:E23" si="5">B17*D17</f>
+        <v>499.06</v>
+      </c>
+      <c r="F17" s="123">
+        <f t="shared" si="3"/>
+        <v>873.86</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="108" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="114">
-        <v>29.57</v>
-      </c>
-      <c r="C18">
-        <v>51.78</v>
+        <v>125</v>
+      </c>
+      <c r="B18" s="128">
+        <v>120.12</v>
+      </c>
+      <c r="C18" s="122">
+        <v>210.33</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18">
-        <f t="shared" ref="E18:E23" si="6">B18*D18</f>
-        <v>59.14</v>
-      </c>
-      <c r="F18" s="115">
-        <f t="shared" si="4"/>
-        <v>103.56</v>
+      <c r="E18" s="122">
+        <f t="shared" si="5"/>
+        <v>240.24</v>
+      </c>
+      <c r="F18" s="123">
+        <f t="shared" si="3"/>
+        <v>420.66</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="108" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="114">
-        <v>7.2</v>
-      </c>
-      <c r="C19">
-        <v>12.61</v>
+        <v>124</v>
+      </c>
+      <c r="B19" s="128">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="C19" s="122">
+        <v>28.31</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="6"/>
-        <v>14.4</v>
-      </c>
-      <c r="F19" s="115">
-        <f t="shared" si="4"/>
-        <v>25.22</v>
+      <c r="E19" s="122">
+        <f t="shared" si="5"/>
+        <v>32.340000000000003</v>
+      </c>
+      <c r="F19" s="123">
+        <f t="shared" si="3"/>
+        <v>56.62</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" s="108" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="114">
-        <v>16.170000000000002</v>
-      </c>
-      <c r="C20">
-        <v>28.31</v>
+        <v>128</v>
+      </c>
+      <c r="B20" s="128">
+        <v>30.49</v>
+      </c>
+      <c r="C20" s="122">
+        <v>53.4</v>
       </c>
       <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="6"/>
-        <v>32.340000000000003</v>
-      </c>
-      <c r="F20" s="115">
-        <f t="shared" si="4"/>
-        <v>56.62</v>
+        <v>4</v>
+      </c>
+      <c r="E20" s="122">
+        <f t="shared" si="5"/>
+        <v>121.96</v>
+      </c>
+      <c r="F20" s="123">
+        <f t="shared" si="3"/>
+        <v>213.6</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" s="108" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="114">
-        <v>8.5</v>
-      </c>
-      <c r="C21">
-        <v>14.98</v>
+        <v>127</v>
+      </c>
+      <c r="B21" s="128">
+        <v>452.93</v>
+      </c>
+      <c r="C21" s="122">
+        <v>793.08</v>
       </c>
       <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="F21" s="115">
-        <f t="shared" si="4"/>
-        <v>59.92</v>
+        <v>2</v>
+      </c>
+      <c r="E21" s="122">
+        <f t="shared" si="5"/>
+        <v>905.86</v>
+      </c>
+      <c r="F21" s="123">
+        <f t="shared" si="3"/>
+        <v>1586.16</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" s="108" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="114">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C22">
-        <v>7.7</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="6"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F22" s="115">
-        <f t="shared" si="4"/>
-        <v>15.4</v>
+        <v>114</v>
+      </c>
+      <c r="B22" s="128">
+        <v>10.01</v>
+      </c>
+      <c r="C22" s="128">
+        <v>17.53</v>
+      </c>
+      <c r="D22" s="118">
+        <v>11</v>
+      </c>
+      <c r="E22" s="128">
+        <f t="shared" si="5"/>
+        <v>110.11</v>
+      </c>
+      <c r="F22" s="123">
+        <f t="shared" si="3"/>
+        <v>192.83</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" s="109" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="116">
-        <v>10.01</v>
-      </c>
-      <c r="C23" s="117">
-        <v>17.53</v>
-      </c>
-      <c r="D23" s="117">
-        <v>11</v>
-      </c>
-      <c r="E23" s="117">
-        <f t="shared" si="6"/>
-        <v>110.11</v>
-      </c>
-      <c r="F23" s="118">
-        <f t="shared" si="4"/>
-        <v>192.83</v>
+        <v>129</v>
+      </c>
+      <c r="B23" s="129">
+        <v>13865.55</v>
+      </c>
+      <c r="C23" s="129">
+        <v>24278.44</v>
+      </c>
+      <c r="D23" s="119">
+        <v>2</v>
+      </c>
+      <c r="E23" s="129">
+        <f t="shared" si="5"/>
+        <v>27731.1</v>
+      </c>
+      <c r="F23" s="130">
+        <f t="shared" si="3"/>
+        <v>48556.88</v>
       </c>
     </row>
     <row r="24" spans="1:50" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="122" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="123" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="123" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="112">
-        <f>SUM(E16:E23)</f>
-        <v>44170.420000000013</v>
-      </c>
-      <c r="F24" s="113">
-        <f>SUM(F16:F23)</f>
-        <v>77341.590000000011</v>
+        <v>111</v>
+      </c>
+      <c r="B24" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="135" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="126">
+        <f>SUM(E15:E23)</f>
+        <v>78074.489999999991</v>
+      </c>
+      <c r="F24" s="127">
+        <f>SUM(F15:F23)</f>
+        <v>136707.88</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -10292,22 +10323,22 @@
     </row>
     <row r="25" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="96">
+        <v>109</v>
+      </c>
+      <c r="B25" s="126">
         <v>75</v>
       </c>
-      <c r="C25" s="96">
+      <c r="C25" s="126">
         <v>100</v>
       </c>
       <c r="D25" s="96">
         <v>100</v>
       </c>
-      <c r="E25" s="96">
+      <c r="E25" s="126">
         <f>B25*D25</f>
         <v>7500</v>
       </c>
-      <c r="F25" s="120">
+      <c r="F25" s="127">
         <f>C25*D25</f>
         <v>10000</v>
       </c>
@@ -10315,24 +10346,24 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="97" t="s">
-        <v>125</v>
+        <v>110</v>
+      </c>
+      <c r="B26" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="135" t="s">
+        <v>107</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="96">
+        <v>107</v>
+      </c>
+      <c r="E26" s="126">
         <f>E24+E25</f>
-        <v>51670.420000000013</v>
-      </c>
-      <c r="F26" s="120">
+        <v>85574.489999999991</v>
+      </c>
+      <c r="F26" s="127">
         <f>F24+F25</f>
-        <v>87341.590000000011</v>
+        <v>146707.88</v>
       </c>
       <c r="H26" s="105"/>
     </row>
@@ -10343,82 +10374,146 @@
       <c r="H28" s="106"/>
     </row>
     <row r="29" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="122">
+        <v>1.01</v>
+      </c>
+      <c r="C29" s="128">
+        <v>1.77</v>
+      </c>
+      <c r="D29">
+        <f>B31</f>
+        <v>316119931719.62878</v>
+      </c>
+      <c r="E29" s="122">
+        <f>B29*D29</f>
+        <v>319281131036.82507</v>
+      </c>
+      <c r="F29" s="122">
+        <f>C29*D29</f>
+        <v>559532279143.74292</v>
+      </c>
       <c r="H29" s="106"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="H30" s="100"/>
+    <row r="30" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="C30" s="118"/>
+      <c r="H30" s="106"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="H31" s="99"/>
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31">
+        <f>(B33+(0.25*B32)+B34+(0.25*B35)+B36)*1.05</f>
+        <v>316119931719.62878</v>
+      </c>
+      <c r="H31" s="100"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="H32" s="100"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32">
+        <f>2*3.14159265359*B33</f>
+        <v>21296856.598686609</v>
+      </c>
+      <c r="H32" s="99"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33">
+        <v>3389500</v>
+      </c>
       <c r="H33" s="100"/>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H34" s="99"/>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="100"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34">
+        <f>2*3.14159265359*B35</f>
+        <v>40030173.59204378</v>
+      </c>
+      <c r="H34" s="100"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35">
+        <v>6371000</v>
+      </c>
+      <c r="H35" s="99"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36">
+        <v>301016265000</v>
+      </c>
       <c r="H36" s="100"/>
     </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="101"/>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="98"/>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H39" s="101"/>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="98"/>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H41" s="101"/>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H42" s="98"/>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="100"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="101"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="98"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="101"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="98"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="101"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H43" s="98"/>
     </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H44" s="102"/>
-    </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H45" s="98"/>
-    </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="98"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="102"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H46" s="98"/>
     </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H47" s="102"/>
-    </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H48" s="98"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="98"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="102"/>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H49" s="101"/>
+      <c r="H49" s="98"/>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H50" s="98"/>
+      <c r="H50" s="101"/>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H51" s="101"/>
-    </row>
-    <row r="52" spans="8:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="H52" s="103"/>
-    </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H53" s="101"/>
+      <c r="H51" s="98"/>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="101"/>
+    </row>
+    <row r="53" spans="8:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="H53" s="103"/>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H54" s="98"/>
+      <c r="H54" s="101"/>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H55" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Challenge IV/handelswarenkalkulation_vxxx.xlsx
+++ b/Challenge IV/handelswarenkalkulation_vxxx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e34764e6b10fa3a5/Desktop/Rechnernetze-I_ITECH/Challenge IV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{3444824E-FCE5-42C8-A740-6949C63957CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{528F2C69-FAED-4CB5-9184-A52925FDFDFA}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{3444824E-FCE5-42C8-A740-6949C63957CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{448516A9-F3C5-4551-89CF-F4186453CB12}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1528,7 +1528,7 @@
     <numFmt numFmtId="167" formatCode="0.0\ %"/>
     <numFmt numFmtId="168" formatCode="0.00\ %\ "/>
     <numFmt numFmtId="169" formatCode="0.0000\ \ "/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="43" x14ac:knownFonts="1">
     <font>
@@ -2057,7 +2057,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -2309,6 +2309,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2320,28 +2337,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5594,10 +5589,10 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="117"/>
+      <c r="J2" s="130"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -5608,10 +5603,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="115">
+      <c r="B4" s="128">
         <v>72727</v>
       </c>
-      <c r="C4" s="115"/>
+      <c r="C4" s="128"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -6267,10 +6262,10 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="117"/>
+      <c r="J2" s="130"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -6281,10 +6276,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="115">
+      <c r="B4" s="128">
         <v>72727</v>
       </c>
-      <c r="C4" s="115"/>
+      <c r="C4" s="128"/>
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
       <c r="F4" s="51"/>
@@ -6959,10 +6954,10 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="117"/>
+      <c r="J2" s="130"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -6973,10 +6968,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="115">
+      <c r="B4" s="128">
         <v>72727</v>
       </c>
-      <c r="C4" s="115"/>
+      <c r="C4" s="128"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -9605,7 +9600,7 @@
   <dimension ref="A1:AX55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9687,20 +9682,20 @@
       <c r="A2" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="131">
+      <c r="B2" s="123">
         <v>794.03</v>
       </c>
-      <c r="C2" s="120">
+      <c r="C2" s="115">
         <v>1390.35</v>
       </c>
       <c r="D2" s="111">
         <v>4</v>
       </c>
-      <c r="E2" s="120">
+      <c r="E2" s="115">
         <f>B2*D2</f>
         <v>3176.12</v>
       </c>
-      <c r="F2" s="121">
+      <c r="F2" s="116">
         <f>C2*D2</f>
         <v>5561.4</v>
       </c>
@@ -9709,20 +9704,20 @@
       <c r="A3" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="132">
+      <c r="B3" s="124">
         <v>1170.3399999999999</v>
       </c>
-      <c r="C3" s="122">
+      <c r="C3" s="117">
         <v>2049.2600000000002</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" s="122">
+      <c r="E3" s="117">
         <f t="shared" ref="E3:E11" si="0">B3*D3</f>
         <v>4681.3599999999997</v>
       </c>
-      <c r="F3" s="123">
+      <c r="F3" s="118">
         <f t="shared" ref="F3:F9" si="1">C3*D3</f>
         <v>8197.0400000000009</v>
       </c>
@@ -9731,20 +9726,20 @@
       <c r="A4" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="132">
+      <c r="B4" s="124">
         <v>329.63</v>
       </c>
-      <c r="C4" s="122">
+      <c r="C4" s="117">
         <v>577.17999999999995</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" s="122">
+      <c r="E4" s="117">
         <f t="shared" si="0"/>
         <v>1318.52</v>
       </c>
-      <c r="F4" s="123">
+      <c r="F4" s="118">
         <f t="shared" ref="F4" si="2">C4*D4</f>
         <v>2308.7199999999998</v>
       </c>
@@ -9753,20 +9748,20 @@
       <c r="A5" s="108" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="132">
+      <c r="B5" s="124">
         <v>5808.67</v>
       </c>
-      <c r="C5" s="122">
+      <c r="C5" s="117">
         <v>10170.92</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="122">
+      <c r="E5" s="117">
         <f t="shared" si="0"/>
         <v>17426.010000000002</v>
       </c>
-      <c r="F5" s="123">
+      <c r="F5" s="118">
         <f t="shared" si="1"/>
         <v>30512.760000000002</v>
       </c>
@@ -9775,64 +9770,64 @@
       <c r="A6" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="132">
+      <c r="B6" s="124">
         <v>1870</v>
       </c>
-      <c r="C6" s="122">
+      <c r="C6" s="117">
         <v>3274.35</v>
       </c>
       <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" s="122">
+        <v>8</v>
+      </c>
+      <c r="E6" s="117">
         <f t="shared" si="0"/>
-        <v>18700</v>
-      </c>
-      <c r="F6" s="123">
+        <v>14960</v>
+      </c>
+      <c r="F6" s="118">
         <f t="shared" si="1"/>
-        <v>32743.5</v>
+        <v>26194.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="132">
+      <c r="B7" s="124">
         <v>116.59</v>
       </c>
-      <c r="C7" s="122">
+      <c r="C7" s="117">
         <v>204.15</v>
       </c>
       <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="122">
+        <v>4</v>
+      </c>
+      <c r="E7" s="117">
         <f t="shared" si="0"/>
-        <v>349.77</v>
-      </c>
-      <c r="F7" s="123">
+        <v>466.36</v>
+      </c>
+      <c r="F7" s="118">
         <f t="shared" si="1"/>
-        <v>612.45000000000005</v>
+        <v>816.6</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="132">
+      <c r="B8" s="124">
         <v>317.18</v>
       </c>
-      <c r="C8" s="122">
+      <c r="C8" s="117">
         <v>555.38</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" s="122">
+      <c r="E8" s="117">
         <f t="shared" si="0"/>
         <v>1903.08</v>
       </c>
-      <c r="F8" s="123">
+      <c r="F8" s="118">
         <f t="shared" si="1"/>
         <v>3332.2799999999997</v>
       </c>
@@ -9841,20 +9836,20 @@
       <c r="A9" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="132">
+      <c r="B9" s="124">
         <v>10.01</v>
       </c>
-      <c r="C9" s="122">
+      <c r="C9" s="117">
         <v>17.53</v>
       </c>
       <c r="D9">
         <v>25</v>
       </c>
-      <c r="E9" s="122">
+      <c r="E9" s="117">
         <f t="shared" si="0"/>
         <v>250.25</v>
       </c>
-      <c r="F9" s="123">
+      <c r="F9" s="118">
         <f t="shared" si="1"/>
         <v>438.25</v>
       </c>
@@ -9863,20 +9858,20 @@
       <c r="A10" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="132">
+      <c r="B10" s="124">
         <v>28.6</v>
       </c>
-      <c r="C10" s="122">
+      <c r="C10" s="117">
         <v>50.08</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" s="122">
+      <c r="E10" s="117">
         <f t="shared" si="0"/>
         <v>114.4</v>
       </c>
-      <c r="F10" s="123">
+      <c r="F10" s="118">
         <f t="shared" ref="F10:F23" si="3">C10*D10</f>
         <v>200.32</v>
       </c>
@@ -9885,20 +9880,20 @@
       <c r="A11" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="133">
+      <c r="B11" s="125">
         <v>38.36</v>
       </c>
-      <c r="C11" s="124">
+      <c r="C11" s="119">
         <v>67.17</v>
       </c>
       <c r="D11" s="112">
         <v>5</v>
       </c>
-      <c r="E11" s="124">
+      <c r="E11" s="119">
         <f t="shared" si="0"/>
         <v>191.8</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="120">
         <f t="shared" si="3"/>
         <v>335.85</v>
       </c>
@@ -9907,22 +9902,22 @@
       <c r="A12" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="127" t="s">
         <v>107</v>
       </c>
       <c r="D12" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="126">
+      <c r="E12" s="121">
         <f>SUM(E2:E11)</f>
-        <v>48111.310000000005</v>
-      </c>
-      <c r="F12" s="127">
+        <v>44487.900000000009</v>
+      </c>
+      <c r="F12" s="122">
         <f>SUM(F2:F11)</f>
-        <v>84242.57</v>
+        <v>77898.020000000019</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -9973,20 +9968,20 @@
       <c r="A13" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="131">
+      <c r="B13" s="123">
         <v>22.09</v>
       </c>
-      <c r="C13" s="120">
+      <c r="C13" s="115">
         <v>38.68</v>
       </c>
       <c r="D13" s="111">
         <v>1</v>
       </c>
-      <c r="E13" s="120">
+      <c r="E13" s="115">
         <f>B13*D13</f>
         <v>22.09</v>
       </c>
-      <c r="F13" s="121">
+      <c r="F13" s="116">
         <f t="shared" si="3"/>
         <v>38.68</v>
       </c>
@@ -9995,44 +9990,44 @@
       <c r="A14" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="133">
+      <c r="B14" s="125">
         <v>26.8</v>
       </c>
-      <c r="C14" s="124">
+      <c r="C14" s="119">
         <v>46.92</v>
       </c>
       <c r="D14" s="112">
-        <v>1</v>
-      </c>
-      <c r="E14" s="124">
+        <v>2</v>
+      </c>
+      <c r="E14" s="119">
         <f>B14*D14</f>
-        <v>26.8</v>
-      </c>
-      <c r="F14" s="125">
+        <v>53.6</v>
+      </c>
+      <c r="F14" s="120">
         <f t="shared" ref="F14:F16" si="4">C14*D14</f>
-        <v>46.92</v>
+        <v>93.84</v>
       </c>
     </row>
     <row r="15" spans="1:50" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="127" t="s">
         <v>107</v>
       </c>
       <c r="D15" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="126">
+      <c r="E15" s="121">
         <f>SUM(E12:E14)</f>
-        <v>48160.200000000004</v>
-      </c>
-      <c r="F15" s="127">
+        <v>44563.590000000004</v>
+      </c>
+      <c r="F15" s="122">
         <f>SUM(F12:F14)</f>
-        <v>84328.17</v>
+        <v>78030.540000000008</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -10083,20 +10078,20 @@
       <c r="A16" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="120">
+      <c r="B16" s="115">
         <v>136.81</v>
       </c>
-      <c r="C16" s="120">
+      <c r="C16" s="115">
         <v>239.55</v>
       </c>
       <c r="D16" s="111">
         <v>2</v>
       </c>
-      <c r="E16" s="120">
+      <c r="E16" s="115">
         <f>B16*D16</f>
         <v>273.62</v>
       </c>
-      <c r="F16" s="121">
+      <c r="F16" s="116">
         <f t="shared" si="4"/>
         <v>479.1</v>
       </c>
@@ -10105,20 +10100,20 @@
       <c r="A17" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="128">
+      <c r="B17" s="117">
         <v>249.53</v>
       </c>
-      <c r="C17" s="122">
+      <c r="C17" s="117">
         <v>436.93</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" s="122">
+      <c r="E17" s="117">
         <f t="shared" ref="E17:E23" si="5">B17*D17</f>
         <v>499.06</v>
       </c>
-      <c r="F17" s="123">
+      <c r="F17" s="118">
         <f t="shared" si="3"/>
         <v>873.86</v>
       </c>
@@ -10127,20 +10122,20 @@
       <c r="A18" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="128">
+      <c r="B18" s="117">
         <v>120.12</v>
       </c>
-      <c r="C18" s="122">
+      <c r="C18" s="117">
         <v>210.33</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" s="122">
+      <c r="E18" s="117">
         <f t="shared" si="5"/>
         <v>240.24</v>
       </c>
-      <c r="F18" s="123">
+      <c r="F18" s="118">
         <f t="shared" si="3"/>
         <v>420.66</v>
       </c>
@@ -10149,20 +10144,20 @@
       <c r="A19" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="128">
+      <c r="B19" s="117">
         <v>16.170000000000002</v>
       </c>
-      <c r="C19" s="122">
+      <c r="C19" s="117">
         <v>28.31</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="E19" s="122">
+      <c r="E19" s="117">
         <f t="shared" si="5"/>
         <v>32.340000000000003</v>
       </c>
-      <c r="F19" s="123">
+      <c r="F19" s="118">
         <f t="shared" si="3"/>
         <v>56.62</v>
       </c>
@@ -10171,20 +10166,20 @@
       <c r="A20" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="128">
+      <c r="B20" s="117">
         <v>30.49</v>
       </c>
-      <c r="C20" s="122">
+      <c r="C20" s="117">
         <v>53.4</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20" s="122">
+      <c r="E20" s="117">
         <f t="shared" si="5"/>
         <v>121.96</v>
       </c>
-      <c r="F20" s="123">
+      <c r="F20" s="118">
         <f t="shared" si="3"/>
         <v>213.6</v>
       </c>
@@ -10193,20 +10188,20 @@
       <c r="A21" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="128">
+      <c r="B21" s="117">
         <v>452.93</v>
       </c>
-      <c r="C21" s="122">
+      <c r="C21" s="117">
         <v>793.08</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" s="122">
+      <c r="E21" s="117">
         <f t="shared" si="5"/>
         <v>905.86</v>
       </c>
-      <c r="F21" s="123">
+      <c r="F21" s="118">
         <f t="shared" si="3"/>
         <v>1586.16</v>
       </c>
@@ -10215,20 +10210,20 @@
       <c r="A22" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="128">
+      <c r="B22" s="117">
         <v>10.01</v>
       </c>
-      <c r="C22" s="128">
+      <c r="C22" s="117">
         <v>17.53</v>
       </c>
-      <c r="D22" s="118">
+      <c r="D22">
         <v>11</v>
       </c>
-      <c r="E22" s="128">
+      <c r="E22" s="117">
         <f t="shared" si="5"/>
         <v>110.11</v>
       </c>
-      <c r="F22" s="123">
+      <c r="F22" s="118">
         <f t="shared" si="3"/>
         <v>192.83</v>
       </c>
@@ -10237,20 +10232,20 @@
       <c r="A23" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="129">
+      <c r="B23" s="117">
         <v>13865.55</v>
       </c>
-      <c r="C23" s="129">
+      <c r="C23" s="117">
         <v>24278.44</v>
       </c>
-      <c r="D23" s="119">
+      <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" s="129">
+      <c r="E23" s="117">
         <f t="shared" si="5"/>
         <v>27731.1</v>
       </c>
-      <c r="F23" s="130">
+      <c r="F23" s="118">
         <f t="shared" si="3"/>
         <v>48556.88</v>
       </c>
@@ -10259,22 +10254,22 @@
       <c r="A24" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="135" t="s">
+      <c r="C24" s="127" t="s">
         <v>107</v>
       </c>
       <c r="D24" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="126">
+      <c r="E24" s="121">
         <f>SUM(E15:E23)</f>
-        <v>78074.489999999991</v>
-      </c>
-      <c r="F24" s="127">
+        <v>74477.88</v>
+      </c>
+      <c r="F24" s="122">
         <f>SUM(F15:F23)</f>
-        <v>136707.88</v>
+        <v>130410.25000000003</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -10325,20 +10320,20 @@
       <c r="A25" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="126">
+      <c r="B25" s="121">
         <v>75</v>
       </c>
-      <c r="C25" s="126">
+      <c r="C25" s="121">
         <v>100</v>
       </c>
       <c r="D25" s="96">
         <v>100</v>
       </c>
-      <c r="E25" s="126">
+      <c r="E25" s="121">
         <f>B25*D25</f>
         <v>7500</v>
       </c>
-      <c r="F25" s="127">
+      <c r="F25" s="122">
         <f>C25*D25</f>
         <v>10000</v>
       </c>
@@ -10348,22 +10343,22 @@
       <c r="A26" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="134" t="s">
+      <c r="B26" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C26" s="127" t="s">
         <v>107</v>
       </c>
       <c r="D26" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="126">
+      <c r="E26" s="121">
         <f>E24+E25</f>
-        <v>85574.489999999991</v>
-      </c>
-      <c r="F26" s="127">
+        <v>81977.88</v>
+      </c>
+      <c r="F26" s="122">
         <f>F24+F25</f>
-        <v>146707.88</v>
+        <v>140410.25000000003</v>
       </c>
       <c r="H26" s="105"/>
     </row>
@@ -10377,28 +10372,27 @@
       <c r="A29" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="122">
+      <c r="B29" s="117">
         <v>1.01</v>
       </c>
-      <c r="C29" s="128">
+      <c r="C29" s="117">
         <v>1.77</v>
       </c>
       <c r="D29">
         <f>B31</f>
         <v>316119931719.62878</v>
       </c>
-      <c r="E29" s="122">
+      <c r="E29" s="117">
         <f>B29*D29</f>
         <v>319281131036.82507</v>
       </c>
-      <c r="F29" s="122">
+      <c r="F29" s="117">
         <f>C29*D29</f>
         <v>559532279143.74292</v>
       </c>
       <c r="H29" s="106"/>
     </row>
     <row r="30" spans="1:50" ht="15" x14ac:dyDescent="0.25">
-      <c r="C30" s="118"/>
       <c r="H30" s="106"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">

--- a/Challenge IV/handelswarenkalkulation_vxxx.xlsx
+++ b/Challenge IV/handelswarenkalkulation_vxxx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e34764e6b10fa3a5/Desktop/Rechnernetze-I_ITECH/Challenge IV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{3444824E-FCE5-42C8-A740-6949C63957CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{448516A9-F3C5-4551-89CF-F4186453CB12}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{3444824E-FCE5-42C8-A740-6949C63957CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C59B2822-57C8-420A-B9D0-0F4B01675945}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorwärtskalkulation" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Differenzkalkulation" sheetId="4" r:id="rId3"/>
     <sheet name="Anwendungshilfe" sheetId="5" r:id="rId4"/>
     <sheet name="Gesamt" sheetId="6" r:id="rId5"/>
+    <sheet name="Präsentation" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Drittens">Anwendungshilfe!$B$35</definedName>
@@ -899,7 +900,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="138">
   <si>
     <t>Bemerkung / Kommentar</t>
   </si>
@@ -9599,8 +9600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0E1454-62F5-4677-9A74-9AE140F0C5B3}">
   <dimension ref="A1:AX55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F26" sqref="A1:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10513,4 +10514,413 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CABD09-E110-4612-A382-C43A88BAD236}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="98.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="110" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="113" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="115">
+        <v>1390.35</v>
+      </c>
+      <c r="C2" s="111">
+        <v>4</v>
+      </c>
+      <c r="D2" s="116">
+        <f>B2*C2</f>
+        <v>5561.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="117">
+        <v>2049.2600000000002</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="118">
+        <f t="shared" ref="D3:D23" si="0">B3*C3</f>
+        <v>8197.0400000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="117">
+        <v>577.17999999999995</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="118">
+        <f t="shared" si="0"/>
+        <v>2308.7199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="117">
+        <v>10170.92</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="118">
+        <f t="shared" si="0"/>
+        <v>30512.760000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="117">
+        <v>3274.35</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" s="118">
+        <f t="shared" si="0"/>
+        <v>26194.799999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="117">
+        <v>204.15</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="118">
+        <f t="shared" si="0"/>
+        <v>816.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="117">
+        <v>555.38</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="118">
+        <f t="shared" si="0"/>
+        <v>3332.2799999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="117">
+        <v>17.53</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9" s="118">
+        <f t="shared" si="0"/>
+        <v>438.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="117">
+        <v>50.08</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" s="118">
+        <f t="shared" si="0"/>
+        <v>200.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="119">
+        <v>67.17</v>
+      </c>
+      <c r="C11" s="112">
+        <v>5</v>
+      </c>
+      <c r="D11" s="120">
+        <f t="shared" si="0"/>
+        <v>335.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="127" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="122">
+        <f>SUM(D2:D11)</f>
+        <v>77898.020000000019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="115">
+        <v>38.68</v>
+      </c>
+      <c r="C13" s="111">
+        <v>1</v>
+      </c>
+      <c r="D13" s="116">
+        <f t="shared" si="0"/>
+        <v>38.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="119">
+        <v>46.92</v>
+      </c>
+      <c r="C14" s="112">
+        <v>2</v>
+      </c>
+      <c r="D14" s="120">
+        <f t="shared" si="0"/>
+        <v>93.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="127" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="122">
+        <f>SUM(D12:D14)</f>
+        <v>78030.540000000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="115">
+        <v>239.55</v>
+      </c>
+      <c r="C16" s="111">
+        <v>2</v>
+      </c>
+      <c r="D16" s="116">
+        <f t="shared" si="0"/>
+        <v>479.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="117">
+        <v>436.93</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="118">
+        <f t="shared" si="0"/>
+        <v>873.86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="117">
+        <v>210.33</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="118">
+        <f t="shared" si="0"/>
+        <v>420.66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="108" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="117">
+        <v>28.31</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="118">
+        <f t="shared" si="0"/>
+        <v>56.62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="117">
+        <v>53.4</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" s="118">
+        <f t="shared" si="0"/>
+        <v>213.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="117">
+        <v>793.08</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="118">
+        <f t="shared" si="0"/>
+        <v>1586.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="117">
+        <v>17.53</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22" s="118">
+        <f t="shared" si="0"/>
+        <v>192.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="117">
+        <v>24278.44</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="118">
+        <f t="shared" si="0"/>
+        <v>48556.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="127" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="122">
+        <f>SUM(D15:D23)</f>
+        <v>130410.25000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="121">
+        <v>100</v>
+      </c>
+      <c r="C25" s="96">
+        <v>100</v>
+      </c>
+      <c r="D25" s="122">
+        <f>B25*C25</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="127" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="122">
+        <f>D24+D25</f>
+        <v>140410.25000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Challenge IV/handelswarenkalkulation_vxxx.xlsx
+++ b/Challenge IV/handelswarenkalkulation_vxxx.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e34764e6b10fa3a5/Desktop/Rechnernetze-I_ITECH/Challenge IV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmarkmann\Documents\I-Tech\pb6\Challenge IV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="8_{3444824E-FCE5-42C8-A740-6949C63957CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C59B2822-57C8-420A-B9D0-0F4B01675945}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4829486-E927-4923-968C-5E92D2B9E7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="672" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vorwärtskalkulation" sheetId="1" r:id="rId1"/>
-    <sheet name="Rückwärtskalkulation" sheetId="3" r:id="rId2"/>
-    <sheet name="Differenzkalkulation" sheetId="4" r:id="rId3"/>
-    <sheet name="Anwendungshilfe" sheetId="5" r:id="rId4"/>
+    <sheet name="Vorwärtskalkulation" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Rückwärtskalkulation" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Differenzkalkulation" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="Anwendungshilfe" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="Gesamt" sheetId="6" r:id="rId5"/>
     <sheet name="Präsentation" sheetId="7" r:id="rId6"/>
   </sheets>
@@ -900,7 +900,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="140">
   <si>
     <t>Bemerkung / Kommentar</t>
   </si>
@@ -1517,6 +1517,12 @@
   <si>
     <t>max Entfernung Mars zur Erde</t>
   </si>
+  <si>
+    <t>Netto Verkaufspreis</t>
+  </si>
+  <si>
+    <t>Gesamt Netto Verkaufspreis</t>
+  </si>
 </sst>
 </file>
 
@@ -1531,7 +1537,7 @@
     <numFmt numFmtId="169" formatCode="0.0000\ \ "/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1818,8 +1824,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1841,6 +1852,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,7 +2075,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -2339,6 +2356,25 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -2348,7 +2384,79 @@
     <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Standard 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -5292,8 +5400,25 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5C574F4-314B-4FA1-926F-937D70201F92}" name="Tabelle1" displayName="Tabelle1" ref="A1:F26" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="A1:F26" xr:uid="{A5C574F4-314B-4FA1-926F-937D70201F92}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{9345E2CB-39AC-4492-98E2-158F17F31EC2}" name="Gerät" totalsRowLabel="Ergebnis" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5D0E4D16-64AC-4211-9776-4ED1CEAD6D46}" name="Brutto-Listenverkaufspreis"/>
+    <tableColumn id="6" xr3:uid="{9E40429A-2558-4458-AE33-24D3ADE71721}" name="Netto Verkaufspreis">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{F8FAA9FE-C482-48A5-A69A-B66698EE7A64}" name="Anzahl"/>
+    <tableColumn id="7" xr3:uid="{70181320-5993-43B1-8157-29A7EFBC3FC2}" name="Gesamt Netto Verkaufspreis">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DB4CB2CE-7FD4-4EEA-A20A-C697C56841D7}" name="Gesamt Brutto-Listenverkaufspreis" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5565,7 +5690,7 @@
   </sheetPr>
   <dimension ref="B1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -6225,6 +6350,7 @@
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="landscape" cellComments="atEnd" r:id="rId2"/>
   <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 - öffentlich | public -&amp;1#_x000D_</oddHeader>
     <oddFooter xml:space="preserve">&amp;L&amp;8ControllerSpielwiese.de / Vorwärtskalkulation&amp;C&amp;8&amp;H Seite &amp;P&amp;R&amp;8 &amp;D / Verfasser </oddFooter>
   </headerFooter>
   <drawing r:id="rId3"/>
@@ -6240,7 +6366,9 @@
   </sheetPr>
   <dimension ref="B1:M41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6917,6 +7045,7 @@
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="landscape" cellComments="atEnd" r:id="rId2"/>
   <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 - öffentlich | public -&amp;1#_x000D_</oddHeader>
     <oddFooter xml:space="preserve">&amp;L&amp;8ControllerSpielwiese.de / Rückwärtskalkulation&amp;C&amp;8&amp;H Seite &amp;P&amp;R&amp;8 &amp;D / Verfasser </oddFooter>
   </headerFooter>
   <drawing r:id="rId3"/>
@@ -6932,7 +7061,9 @@
   </sheetPr>
   <dimension ref="B1:J41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7542,6 +7673,7 @@
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="landscape" cellComments="atEnd" r:id="rId2"/>
   <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 - öffentlich | public -&amp;1#_x000D_</oddHeader>
     <oddFooter xml:space="preserve">&amp;L&amp;8ControllerSpielwiese.de / Differenzkalkulation&amp;C&amp;8&amp;H Seite &amp;P&amp;R&amp;8 &amp;D / Verfasser </oddFooter>
   </headerFooter>
   <drawing r:id="rId3"/>
@@ -7555,7 +7687,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9590,6 +9723,7 @@
   <pageMargins left="0.31496062992125984" right="0" top="0.39370078740157483" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId4"/>
   <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 - öffentlich | public -&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;L&amp;8C by ControllerSpielwiese.de&amp;C&amp;8Seite &amp;P&amp;R&amp;8Verfasser: Joachim Becker</oddFooter>
   </headerFooter>
   <drawing r:id="rId5"/>
@@ -9601,7 +9735,7 @@
   <dimension ref="A1:AX55"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F26" sqref="A1:F26"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10512,415 +10646,657 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 - öffentlich | public -&amp;1#_x000D_</oddHeader>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CABD09-E110-4612-A382-C43A88BAD236}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="98.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="112" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="E1" s="112" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="135" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="G1" s="135"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="131" t="s">
         <v>119</v>
       </c>
       <c r="B2" s="115">
         <v>1390.35</v>
       </c>
-      <c r="C2" s="111">
+      <c r="C2" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>1168.3613445378151</v>
+      </c>
+      <c r="D2" s="111">
         <v>4</v>
       </c>
-      <c r="D2" s="116">
-        <f>B2*C2</f>
+      <c r="E2" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>4673.4453781512602</v>
+      </c>
+      <c r="F2" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>5561.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="G2" s="134"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="132" t="s">
         <v>118</v>
       </c>
       <c r="B3" s="117">
         <v>2049.2600000000002</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>1722.0672268907565</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="D3" s="118">
-        <f t="shared" ref="D3:D23" si="0">B3*C3</f>
+      <c r="E3" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>6888.268907563026</v>
+      </c>
+      <c r="F3" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>8197.0400000000009</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="G3" s="117"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="132" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="117">
         <v>577.17999999999995</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>485.02521008403357</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="D4" s="118">
-        <f t="shared" si="0"/>
+      <c r="E4" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>1940.1008403361343</v>
+      </c>
+      <c r="F4" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>2308.7199999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="108" t="s">
+      <c r="G4" s="117"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="132" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="117">
         <v>10170.92</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>8546.9915966386561</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5" s="118">
-        <f t="shared" si="0"/>
+      <c r="E5" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>25640.97478991597</v>
+      </c>
+      <c r="F5" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>30512.760000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
+      <c r="G5" s="117"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="132" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="117">
         <v>3274.35</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>2751.5546218487393</v>
+      </c>
+      <c r="D6">
         <v>8</v>
       </c>
-      <c r="D6" s="118">
-        <f t="shared" si="0"/>
-        <v>26194.799999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="108" t="s">
+      <c r="E6" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>22012.436974789915</v>
+      </c>
+      <c r="F6" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
+        <v>26194.799999999996</v>
+      </c>
+      <c r="G6" s="117"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="132" t="s">
         <v>130</v>
       </c>
       <c r="B7" s="117">
         <v>204.15</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>171.55462184873952</v>
+      </c>
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="D7" s="118">
-        <f t="shared" si="0"/>
+      <c r="E7" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>686.21848739495806</v>
+      </c>
+      <c r="F7" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>816.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="108" t="s">
+      <c r="G7" s="117"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="132" t="s">
         <v>113</v>
       </c>
       <c r="B8" s="117">
         <v>555.38</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>466.70588235294122</v>
+      </c>
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="D8" s="118">
-        <f t="shared" si="0"/>
-        <v>3332.2799999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="108" t="s">
+      <c r="E8" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>2800.2352941176473</v>
+      </c>
+      <c r="F8" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
+        <v>3332.28</v>
+      </c>
+      <c r="G8" s="117"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="132" t="s">
         <v>114</v>
       </c>
       <c r="B9" s="117">
         <v>17.53</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>14.731092436974791</v>
+      </c>
+      <c r="D9">
         <v>25</v>
       </c>
-      <c r="D9" s="118">
-        <f t="shared" si="0"/>
+      <c r="E9" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>368.27731092436977</v>
+      </c>
+      <c r="F9" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>438.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="s">
+      <c r="G9" s="117"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="132" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="117">
         <v>50.08</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>42.084033613445378</v>
+      </c>
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="D10" s="118">
-        <f t="shared" si="0"/>
+      <c r="E10" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>168.33613445378151</v>
+      </c>
+      <c r="F10" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>200.32</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="109" t="s">
+      <c r="G10" s="117"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="133" t="s">
         <v>116</v>
       </c>
       <c r="B11" s="119">
         <v>67.17</v>
       </c>
-      <c r="C11" s="112">
+      <c r="C11" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>56.445378151260506</v>
+      </c>
+      <c r="D11" s="112">
         <v>5</v>
       </c>
-      <c r="D11" s="120">
-        <f t="shared" si="0"/>
-        <v>335.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="110" t="s">
+      <c r="E11" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>282.22689075630251</v>
+      </c>
+      <c r="F11" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
+        <v>335.84999999999997</v>
+      </c>
+      <c r="G11" s="117"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="127" t="s">
+      <c r="B12" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="122">
-        <f>SUM(D2:D11)</f>
+      <c r="D12" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="137">
+        <f>SUM(E2:E11)</f>
+        <v>65460.521008403382</v>
+      </c>
+      <c r="F12" s="137">
+        <f>SUM(F2:F11)</f>
         <v>77898.020000000019</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="107" t="s">
+      <c r="G12" s="117"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="131" t="s">
         <v>121</v>
       </c>
       <c r="B13" s="115">
         <v>38.68</v>
       </c>
-      <c r="C13" s="111">
+      <c r="C13" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>32.504201680672267</v>
+      </c>
+      <c r="D13" s="111">
         <v>1</v>
       </c>
-      <c r="D13" s="116">
-        <f t="shared" si="0"/>
-        <v>38.68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="109" t="s">
+      <c r="E13" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>32.504201680672267</v>
+      </c>
+      <c r="F13" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
+        <v>38.679999999999993</v>
+      </c>
+      <c r="G13" s="117"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="133" t="s">
         <v>122</v>
       </c>
       <c r="B14" s="119">
         <v>46.92</v>
       </c>
-      <c r="C14" s="112">
+      <c r="C14" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>39.428571428571431</v>
+      </c>
+      <c r="D14" s="112">
         <v>2</v>
       </c>
-      <c r="D14" s="120">
-        <f t="shared" si="0"/>
+      <c r="E14" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>78.857142857142861</v>
+      </c>
+      <c r="F14" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>93.84</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="110" t="s">
+      <c r="G14" s="117"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="136" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="122">
-        <f>SUM(D12:D14)</f>
-        <v>78030.540000000008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="107" t="s">
+      <c r="D15" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="137">
+        <f>SUM(E13:E14)</f>
+        <v>111.36134453781513</v>
+      </c>
+      <c r="F15" s="137">
+        <f>SUM(F13:F14)</f>
+        <v>132.51999999999998</v>
+      </c>
+      <c r="G15" s="117"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="131" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="115">
         <v>239.55</v>
       </c>
-      <c r="C16" s="111">
+      <c r="C16" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>201.30252100840337</v>
+      </c>
+      <c r="D16" s="111">
         <v>2</v>
       </c>
-      <c r="D16" s="116">
-        <f t="shared" si="0"/>
+      <c r="E16" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>402.60504201680675</v>
+      </c>
+      <c r="F16" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>479.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="108" t="s">
+      <c r="G16" s="117"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="132" t="s">
         <v>126</v>
       </c>
       <c r="B17" s="117">
         <v>436.93</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>367.1680672268908</v>
+      </c>
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="D17" s="118">
-        <f t="shared" si="0"/>
+      <c r="E17" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>734.3361344537816</v>
+      </c>
+      <c r="F17" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>873.86</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
+      <c r="G17" s="117"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="132" t="s">
         <v>125</v>
       </c>
       <c r="B18" s="117">
         <v>210.33</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>176.74789915966389</v>
+      </c>
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="D18" s="118">
-        <f t="shared" si="0"/>
+      <c r="E18" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>353.49579831932778</v>
+      </c>
+      <c r="F18" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>420.66</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="108" t="s">
+      <c r="G18" s="117"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="132" t="s">
         <v>124</v>
       </c>
       <c r="B19" s="117">
         <v>28.31</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>23.789915966386555</v>
+      </c>
+      <c r="D19">
         <v>2</v>
       </c>
-      <c r="D19" s="118">
-        <f t="shared" si="0"/>
+      <c r="E19" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>47.579831932773111</v>
+      </c>
+      <c r="F19" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>56.62</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="108" t="s">
+      <c r="G19" s="117"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="132" t="s">
         <v>128</v>
       </c>
       <c r="B20" s="117">
         <v>53.4</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>44.873949579831937</v>
+      </c>
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="D20" s="118">
-        <f t="shared" si="0"/>
-        <v>213.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="108" t="s">
+      <c r="E20" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>179.49579831932775</v>
+      </c>
+      <c r="F20" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
+        <v>213.60000000000002</v>
+      </c>
+      <c r="G20" s="117"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="132" t="s">
         <v>127</v>
       </c>
       <c r="B21" s="117">
         <v>793.08</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>666.45378151260513</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="D21" s="118">
-        <f t="shared" si="0"/>
+      <c r="E21" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>1332.9075630252103</v>
+      </c>
+      <c r="F21" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>1586.16</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="108" t="s">
+      <c r="G21" s="117"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="132" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="117">
         <v>17.53</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>14.731092436974791</v>
+      </c>
+      <c r="D22">
         <v>11</v>
       </c>
-      <c r="D22" s="118">
-        <f t="shared" si="0"/>
+      <c r="E22" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>162.0420168067227</v>
+      </c>
+      <c r="F22" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>192.83</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="109" t="s">
+      <c r="G22" s="117"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="133" t="s">
         <v>129</v>
       </c>
       <c r="B23" s="117">
         <v>24278.44</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>20402.050420168067</v>
+      </c>
+      <c r="D23">
         <v>2</v>
       </c>
-      <c r="D23" s="118">
-        <f t="shared" si="0"/>
+      <c r="E23" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>40804.100840336134</v>
+      </c>
+      <c r="F23" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>48556.88</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="107" t="s">
+      <c r="G23" s="117"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="127" t="s">
+      <c r="B24" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="122">
-        <f>SUM(D15:D23)</f>
-        <v>130410.25000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="110" t="s">
+      <c r="D24" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="137">
+        <f>SUM(E16:E23)</f>
+        <v>44016.563025210082</v>
+      </c>
+      <c r="F24" s="137">
+        <f>SUM(F16:F23)</f>
+        <v>52379.71</v>
+      </c>
+      <c r="G24" s="117"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="113" t="s">
         <v>109</v>
       </c>
       <c r="B25" s="121">
         <v>100</v>
       </c>
-      <c r="C25" s="96">
+      <c r="C25" s="117">
+        <f>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</f>
+        <v>84.033613445378151</v>
+      </c>
+      <c r="D25" s="96">
         <v>100</v>
       </c>
-      <c r="D25" s="122">
-        <f>B25*C25</f>
+      <c r="E25" s="117">
+        <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>8403.361344537816</v>
+      </c>
+      <c r="F25" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="110" t="s">
+      <c r="G25" s="117"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="122">
-        <f>D24+D25</f>
+      <c r="D26" s="141" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="140">
+        <f>SUM(E12,E15,E24,E25)</f>
+        <v>117991.8067226891</v>
+      </c>
+      <c r="F26" s="140">
+        <f>SUM(F12,F15,F24,F25)</f>
         <v>140410.25000000003</v>
       </c>
+      <c r="G26" s="117"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 - öffentlich | public -&amp;1#_x000D_</oddHeader>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Challenge IV/handelswarenkalkulation_vxxx.xlsx
+++ b/Challenge IV/handelswarenkalkulation_vxxx.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmarkmann\Documents\I-Tech\pb6\Challenge IV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4829486-E927-4923-968C-5E92D2B9E7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EB5F1D-33DF-4C6C-8CED-A6D01B051880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="672" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="672" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vorwärtskalkulation" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Rückwärtskalkulation" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="Differenzkalkulation" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="Anwendungshilfe" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Vorwärtskalkulation" sheetId="1" r:id="rId1"/>
+    <sheet name="Rückwärtskalkulation" sheetId="3" r:id="rId2"/>
+    <sheet name="Differenzkalkulation" sheetId="4" r:id="rId3"/>
+    <sheet name="Anwendungshilfe" sheetId="5" r:id="rId4"/>
     <sheet name="Gesamt" sheetId="6" r:id="rId5"/>
     <sheet name="Präsentation" sheetId="7" r:id="rId6"/>
   </sheets>
@@ -900,7 +900,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="141">
   <si>
     <t>Bemerkung / Kommentar</t>
   </si>
@@ -1522,6 +1522,9 @@
   </si>
   <si>
     <t>Gesamt Netto Verkaufspreis</t>
+  </si>
+  <si>
+    <t>MwSt 19 %</t>
   </si>
 </sst>
 </file>
@@ -2344,18 +2347,6 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -2375,6 +2366,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -2384,25 +2387,28 @@
     <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Standard 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom/>
       </border>
@@ -2424,23 +2430,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2451,6 +2440,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -5401,10 +5397,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5C574F4-314B-4FA1-926F-937D70201F92}" name="Tabelle1" displayName="Tabelle1" ref="A1:F26" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="A1:F26" xr:uid="{A5C574F4-314B-4FA1-926F-937D70201F92}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9345E2CB-39AC-4492-98E2-158F17F31EC2}" name="Gerät" totalsRowLabel="Ergebnis" dataDxfId="2" totalsRowDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5C574F4-314B-4FA1-926F-937D70201F92}" name="Tabelle1" displayName="Tabelle1" ref="A1:G26" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:G26" xr:uid="{A5C574F4-314B-4FA1-926F-937D70201F92}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{9345E2CB-39AC-4492-98E2-158F17F31EC2}" name="Gerät" totalsRowLabel="Ergebnis" dataDxfId="4" totalsRowDxfId="3"/>
     <tableColumn id="2" xr3:uid="{5D0E4D16-64AC-4211-9776-4ED1CEAD6D46}" name="Brutto-Listenverkaufspreis"/>
     <tableColumn id="6" xr3:uid="{9E40429A-2558-4458-AE33-24D3ADE71721}" name="Netto Verkaufspreis">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Brutto-Listenverkaufspreis]]/1.19</calculatedColumnFormula>
@@ -5412,6 +5408,9 @@
     <tableColumn id="3" xr3:uid="{F8FAA9FE-C482-48A5-A69A-B66698EE7A64}" name="Anzahl"/>
     <tableColumn id="7" xr3:uid="{70181320-5993-43B1-8157-29A7EFBC3FC2}" name="Gesamt Netto Verkaufspreis">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{37E6AFBF-43C3-4AED-AC5E-DF546F075524}" name="MwSt 19 %" dataDxfId="2">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{DB4CB2CE-7FD4-4EEA-A20A-C697C56841D7}" name="Gesamt Brutto-Listenverkaufspreis" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</calculatedColumnFormula>
@@ -5715,10 +5714,10 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="129" t="s">
+      <c r="I2" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="130"/>
+      <c r="J2" s="141"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -5729,10 +5728,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="128">
+      <c r="B4" s="139">
         <v>72727</v>
       </c>
-      <c r="C4" s="128"/>
+      <c r="C4" s="139"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -6391,10 +6390,10 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="129" t="s">
+      <c r="I2" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="130"/>
+      <c r="J2" s="141"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -6405,10 +6404,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="128">
+      <c r="B4" s="139">
         <v>72727</v>
       </c>
-      <c r="C4" s="128"/>
+      <c r="C4" s="139"/>
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
       <c r="F4" s="51"/>
@@ -7086,10 +7085,10 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="129" t="s">
+      <c r="I2" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="130"/>
+      <c r="J2" s="141"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -7100,10 +7099,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="128">
+      <c r="B4" s="139">
         <v>72727</v>
       </c>
-      <c r="C4" s="128"/>
+      <c r="C4" s="139"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -9735,7 +9734,7 @@
   <dimension ref="A1:AX55"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10655,10 +10654,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CABD09-E110-4612-A382-C43A88BAD236}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10668,12 +10667,13 @@
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="130" t="s">
         <v>102</v>
       </c>
       <c r="B1" s="112" t="s">
@@ -10688,13 +10688,16 @@
       <c r="E1" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="135" t="s">
+      <c r="F1" s="112" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="132" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="135"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="H1" s="132"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="128" t="s">
         <v>119</v>
       </c>
       <c r="B2" s="115">
@@ -10711,14 +10714,18 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>4673.4453781512602</v>
       </c>
-      <c r="F2" s="134">
+      <c r="F2" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>887.95462184873941</v>
+      </c>
+      <c r="G2" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>5561.4</v>
       </c>
-      <c r="G2" s="134"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="H2" s="131"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="129" t="s">
         <v>118</v>
       </c>
       <c r="B3" s="117">
@@ -10735,14 +10742,18 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>6888.268907563026</v>
       </c>
-      <c r="F3" s="134">
+      <c r="F3" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>1308.7710924369749</v>
+      </c>
+      <c r="G3" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>8197.0400000000009</v>
       </c>
-      <c r="G3" s="117"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+      <c r="H3" s="117"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="129" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="117">
@@ -10759,14 +10770,18 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>1940.1008403361343</v>
       </c>
-      <c r="F4" s="134">
+      <c r="F4" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>368.6191596638655</v>
+      </c>
+      <c r="G4" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>2308.7199999999998</v>
       </c>
-      <c r="G4" s="117"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="132" t="s">
+      <c r="H4" s="117"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="129" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="117">
@@ -10783,14 +10798,18 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>25640.97478991597</v>
       </c>
-      <c r="F5" s="134">
+      <c r="F5" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>4871.7852100840346</v>
+      </c>
+      <c r="G5" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>30512.760000000002</v>
       </c>
-      <c r="G5" s="117"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="132" t="s">
+      <c r="H5" s="117"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="129" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="117">
@@ -10807,14 +10826,18 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>22012.436974789915</v>
       </c>
-      <c r="F6" s="134">
+      <c r="F6" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>4182.3630252100838</v>
+      </c>
+      <c r="G6" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>26194.799999999996</v>
       </c>
-      <c r="G6" s="117"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="132" t="s">
+      <c r="H6" s="117"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="129" t="s">
         <v>130</v>
       </c>
       <c r="B7" s="117">
@@ -10831,14 +10854,18 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>686.21848739495806</v>
       </c>
-      <c r="F7" s="134">
+      <c r="F7" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>130.38151260504202</v>
+      </c>
+      <c r="G7" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>816.6</v>
       </c>
-      <c r="G7" s="117"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="132" t="s">
+      <c r="H7" s="117"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="129" t="s">
         <v>113</v>
       </c>
       <c r="B8" s="117">
@@ -10855,14 +10882,18 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>2800.2352941176473</v>
       </c>
-      <c r="F8" s="134">
+      <c r="F8" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>532.04470588235301</v>
+      </c>
+      <c r="G8" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>3332.28</v>
       </c>
-      <c r="G8" s="117"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="132" t="s">
+      <c r="H8" s="117"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="129" t="s">
         <v>114</v>
       </c>
       <c r="B9" s="117">
@@ -10879,14 +10910,18 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>368.27731092436977</v>
       </c>
-      <c r="F9" s="134">
+      <c r="F9" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>69.972689075630257</v>
+      </c>
+      <c r="G9" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>438.25</v>
       </c>
-      <c r="G9" s="117"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="132" t="s">
+      <c r="H9" s="117"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="129" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="117">
@@ -10903,14 +10938,18 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>168.33613445378151</v>
       </c>
-      <c r="F10" s="134">
+      <c r="F10" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>31.983865546218489</v>
+      </c>
+      <c r="G10" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>200.32</v>
       </c>
-      <c r="G10" s="117"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="133" t="s">
+      <c r="H10" s="117"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="130" t="s">
         <v>116</v>
       </c>
       <c r="B11" s="119">
@@ -10927,37 +10966,45 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>282.22689075630251</v>
       </c>
-      <c r="F11" s="134">
+      <c r="F11" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>53.623109243697478</v>
+      </c>
+      <c r="G11" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>335.84999999999997</v>
       </c>
-      <c r="G11" s="117"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="136" t="s">
+      <c r="H11" s="117"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="134" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="134" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="138" t="s">
+      <c r="D12" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="137">
+      <c r="E12" s="134">
         <f>SUM(E2:E11)</f>
         <v>65460.521008403382</v>
       </c>
-      <c r="F12" s="137">
-        <f>SUM(F2:F11)</f>
+      <c r="F12" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>12437.498991596643</v>
+      </c>
+      <c r="G12" s="134">
+        <f>SUM(G2:G11)</f>
         <v>77898.020000000019</v>
       </c>
-      <c r="G12" s="117"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="131" t="s">
+      <c r="H12" s="117"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="128" t="s">
         <v>121</v>
       </c>
       <c r="B13" s="115">
@@ -10974,14 +11021,18 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>32.504201680672267</v>
       </c>
-      <c r="F13" s="134">
+      <c r="F13" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>6.1757983193277308</v>
+      </c>
+      <c r="G13" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>38.679999999999993</v>
       </c>
-      <c r="G13" s="117"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="133" t="s">
+      <c r="H13" s="117"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="130" t="s">
         <v>122</v>
       </c>
       <c r="B14" s="119">
@@ -10998,37 +11049,45 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>78.857142857142861</v>
       </c>
-      <c r="F14" s="134">
+      <c r="F14" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>14.982857142857144</v>
+      </c>
+      <c r="G14" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>93.84</v>
       </c>
-      <c r="G14" s="117"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="136" t="s">
+      <c r="H14" s="117"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="134" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="134" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="138" t="s">
+      <c r="D15" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="137">
+      <c r="E15" s="134">
         <f>SUM(E13:E14)</f>
         <v>111.36134453781513</v>
       </c>
-      <c r="F15" s="137">
-        <f>SUM(F13:F14)</f>
+      <c r="F15" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>21.158655462184875</v>
+      </c>
+      <c r="G15" s="134">
+        <f>SUM(G13:G14)</f>
         <v>132.51999999999998</v>
       </c>
-      <c r="G15" s="117"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="131" t="s">
+      <c r="H15" s="117"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="128" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="115">
@@ -11045,14 +11104,18 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>402.60504201680675</v>
       </c>
-      <c r="F16" s="134">
+      <c r="F16" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>76.494957983193288</v>
+      </c>
+      <c r="G16" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>479.1</v>
       </c>
-      <c r="G16" s="117"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="132" t="s">
+      <c r="H16" s="117"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="129" t="s">
         <v>126</v>
       </c>
       <c r="B17" s="117">
@@ -11069,14 +11132,18 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>734.3361344537816</v>
       </c>
-      <c r="F17" s="134">
+      <c r="F17" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>139.5238655462185</v>
+      </c>
+      <c r="G17" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>873.86</v>
       </c>
-      <c r="G17" s="117"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="132" t="s">
+      <c r="H17" s="117"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="129" t="s">
         <v>125</v>
       </c>
       <c r="B18" s="117">
@@ -11093,14 +11160,18 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>353.49579831932778</v>
       </c>
-      <c r="F18" s="134">
+      <c r="F18" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>67.164201680672278</v>
+      </c>
+      <c r="G18" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>420.66</v>
       </c>
-      <c r="G18" s="117"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="132" t="s">
+      <c r="H18" s="117"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="129" t="s">
         <v>124</v>
       </c>
       <c r="B19" s="117">
@@ -11117,14 +11188,18 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>47.579831932773111</v>
       </c>
-      <c r="F19" s="134">
+      <c r="F19" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>9.0401680672268903</v>
+      </c>
+      <c r="G19" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>56.62</v>
       </c>
-      <c r="G19" s="117"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="132" t="s">
+      <c r="H19" s="117"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="129" t="s">
         <v>128</v>
       </c>
       <c r="B20" s="117">
@@ -11141,14 +11216,18 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>179.49579831932775</v>
       </c>
-      <c r="F20" s="134">
+      <c r="F20" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>34.104201680672276</v>
+      </c>
+      <c r="G20" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>213.60000000000002</v>
       </c>
-      <c r="G20" s="117"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="132" t="s">
+      <c r="H20" s="117"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="129" t="s">
         <v>127</v>
       </c>
       <c r="B21" s="117">
@@ -11165,14 +11244,18 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>1332.9075630252103</v>
       </c>
-      <c r="F21" s="134">
+      <c r="F21" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>253.25243697478996</v>
+      </c>
+      <c r="G21" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>1586.16</v>
       </c>
-      <c r="G21" s="117"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="132" t="s">
+      <c r="H21" s="117"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="129" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="117">
@@ -11189,14 +11272,18 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>162.0420168067227</v>
       </c>
-      <c r="F22" s="134">
+      <c r="F22" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>30.787983193277313</v>
+      </c>
+      <c r="G22" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>192.83</v>
       </c>
-      <c r="G22" s="117"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="133" t="s">
+      <c r="H22" s="117"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="130" t="s">
         <v>129</v>
       </c>
       <c r="B23" s="117">
@@ -11213,36 +11300,44 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>40804.100840336134</v>
       </c>
-      <c r="F23" s="134">
+      <c r="F23" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>7752.7791596638654</v>
+      </c>
+      <c r="G23" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>48556.88</v>
       </c>
-      <c r="G23" s="117"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="139" t="s">
+      <c r="H23" s="117"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="134" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="134" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="138" t="s">
+      <c r="D24" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="137">
+      <c r="E24" s="134">
         <f>SUM(E16:E23)</f>
         <v>44016.563025210082</v>
       </c>
-      <c r="F24" s="137">
-        <f>SUM(F16:F23)</f>
+      <c r="F24" s="134">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>8363.1469747899155</v>
+      </c>
+      <c r="G24" s="134">
+        <f>SUM(G16:G23)</f>
         <v>52379.71</v>
       </c>
-      <c r="G24" s="117"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="117"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="113" t="s">
         <v>109</v>
       </c>
@@ -11260,34 +11355,42 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>8403.361344537816</v>
       </c>
-      <c r="F25" s="134">
+      <c r="F25" s="131">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>1596.6386554621849</v>
+      </c>
+      <c r="G25" s="131">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>10000</v>
       </c>
-      <c r="G25" s="117"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="139" t="s">
+      <c r="H25" s="117"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="140" t="s">
+      <c r="B26" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="140" t="s">
+      <c r="C26" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="141" t="s">
+      <c r="D26" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="140">
+      <c r="E26" s="137">
         <f>SUM(E12,E15,E24,E25)</f>
         <v>117991.8067226891</v>
       </c>
-      <c r="F26" s="140">
-        <f>SUM(F12,F15,F24,F25)</f>
+      <c r="F26" s="137">
+        <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
+        <v>22418.443277310929</v>
+      </c>
+      <c r="G26" s="137">
+        <f>SUM(G12,G15,G24,G25)</f>
         <v>140410.25000000003</v>
       </c>
-      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
     </row>
   </sheetData>
   <phoneticPr fontId="43" type="noConversion"/>

--- a/Challenge IV/handelswarenkalkulation_vxxx.xlsx
+++ b/Challenge IV/handelswarenkalkulation_vxxx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmarkmann\Documents\I-Tech\pb6\Challenge IV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipal\IdeaProjects\Rechnernetze-I_ITECH\Challenge IV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EB5F1D-33DF-4C6C-8CED-A6D01B051880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B642CC99-310D-49D1-B64A-23F639F7A86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="672" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorwärtskalkulation" sheetId="1" r:id="rId1"/>
@@ -2078,7 +2078,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -2350,8 +2350,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2390,15 +2388,15 @@
   <dxfs count="7">
     <dxf>
       <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
@@ -5412,7 +5410,7 @@
     <tableColumn id="5" xr3:uid="{37E6AFBF-43C3-4AED-AC5E-DF546F075524}" name="MwSt 19 %" dataDxfId="2">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DB4CB2CE-7FD4-4EEA-A20A-C697C56841D7}" name="Gesamt Brutto-Listenverkaufspreis" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
+    <tableColumn id="4" xr3:uid="{DB4CB2CE-7FD4-4EEA-A20A-C697C56841D7}" name="Gesamt Brutto-Listenverkaufspreis" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5714,10 +5712,10 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="140" t="s">
+      <c r="I2" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="141"/>
+      <c r="J2" s="139"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -5728,10 +5726,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="139">
+      <c r="B4" s="137">
         <v>72727</v>
       </c>
-      <c r="C4" s="139"/>
+      <c r="C4" s="137"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -6390,10 +6388,10 @@
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="140" t="s">
+      <c r="I2" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="141"/>
+      <c r="J2" s="139"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -6404,10 +6402,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="139">
+      <c r="B4" s="137">
         <v>72727</v>
       </c>
-      <c r="C4" s="139"/>
+      <c r="C4" s="137"/>
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
       <c r="F4" s="51"/>
@@ -7085,10 +7083,10 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="140" t="s">
+      <c r="I2" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="141"/>
+      <c r="J2" s="139"/>
     </row>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
@@ -7099,10 +7097,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="139">
+      <c r="B4" s="137">
         <v>72727</v>
       </c>
-      <c r="C4" s="139"/>
+      <c r="C4" s="137"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -9733,8 +9731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0E1454-62F5-4677-9A74-9AE140F0C5B3}">
   <dimension ref="A1:AX55"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10514,15 +10512,15 @@
       </c>
       <c r="D29">
         <f>B31</f>
-        <v>316119931719.62878</v>
+        <v>421119931719.62878</v>
       </c>
       <c r="E29" s="117">
         <f>B29*D29</f>
-        <v>319281131036.82507</v>
+        <v>425331131036.82507</v>
       </c>
       <c r="F29" s="117">
         <f>C29*D29</f>
-        <v>559532279143.74292</v>
+        <v>745382279143.74292</v>
       </c>
       <c r="H29" s="106"/>
     </row>
@@ -10535,7 +10533,7 @@
       </c>
       <c r="B31">
         <f>(B33+(0.25*B32)+B34+(0.25*B35)+B36)*1.05</f>
-        <v>316119931719.62878</v>
+        <v>421119931719.62878</v>
       </c>
       <c r="H31" s="100"/>
     </row>
@@ -10582,7 +10580,7 @@
         <v>137</v>
       </c>
       <c r="B36">
-        <v>301016265000</v>
+        <v>401016265000</v>
       </c>
       <c r="H36" s="100"/>
     </row>
@@ -10656,7 +10654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CABD09-E110-4612-A382-C43A88BAD236}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -10691,10 +10689,9 @@
       <c r="F1" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="132" t="s">
+      <c r="G1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="128" t="s">
@@ -10714,15 +10711,15 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>4673.4453781512602</v>
       </c>
-      <c r="F2" s="131">
+      <c r="F2" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>887.95462184873941</v>
       </c>
-      <c r="G2" s="131">
+      <c r="G2" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>5561.4</v>
       </c>
-      <c r="H2" s="131"/>
+      <c r="H2" s="117"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="129" t="s">
@@ -10742,11 +10739,11 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>6888.268907563026</v>
       </c>
-      <c r="F3" s="131">
+      <c r="F3" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>1308.7710924369749</v>
       </c>
-      <c r="G3" s="131">
+      <c r="G3" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>8197.0400000000009</v>
       </c>
@@ -10770,11 +10767,11 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>1940.1008403361343</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>368.6191596638655</v>
       </c>
-      <c r="G4" s="131">
+      <c r="G4" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>2308.7199999999998</v>
       </c>
@@ -10798,11 +10795,11 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>25640.97478991597</v>
       </c>
-      <c r="F5" s="131">
+      <c r="F5" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>4871.7852100840346</v>
       </c>
-      <c r="G5" s="131">
+      <c r="G5" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>30512.760000000002</v>
       </c>
@@ -10826,11 +10823,11 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>22012.436974789915</v>
       </c>
-      <c r="F6" s="131">
+      <c r="F6" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>4182.3630252100838</v>
       </c>
-      <c r="G6" s="131">
+      <c r="G6" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>26194.799999999996</v>
       </c>
@@ -10854,11 +10851,11 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>686.21848739495806</v>
       </c>
-      <c r="F7" s="131">
+      <c r="F7" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>130.38151260504202</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>816.6</v>
       </c>
@@ -10882,11 +10879,11 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>2800.2352941176473</v>
       </c>
-      <c r="F8" s="131">
+      <c r="F8" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>532.04470588235301</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>3332.28</v>
       </c>
@@ -10910,11 +10907,11 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>368.27731092436977</v>
       </c>
-      <c r="F9" s="131">
+      <c r="F9" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>69.972689075630257</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>438.25</v>
       </c>
@@ -10938,11 +10935,11 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>168.33613445378151</v>
       </c>
-      <c r="F10" s="131">
+      <c r="F10" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>31.983865546218489</v>
       </c>
-      <c r="G10" s="131">
+      <c r="G10" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>200.32</v>
       </c>
@@ -10966,38 +10963,38 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>282.22689075630251</v>
       </c>
-      <c r="F11" s="131">
+      <c r="F11" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>53.623109243697478</v>
       </c>
-      <c r="G11" s="131">
+      <c r="G11" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>335.84999999999997</v>
       </c>
       <c r="H11" s="117"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="134">
+      <c r="E12" s="132">
         <f>SUM(E2:E11)</f>
         <v>65460.521008403382</v>
       </c>
-      <c r="F12" s="134">
+      <c r="F12" s="132">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>12437.498991596643</v>
       </c>
-      <c r="G12" s="134">
+      <c r="G12" s="132">
         <f>SUM(G2:G11)</f>
         <v>77898.020000000019</v>
       </c>
@@ -11021,11 +11018,11 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>32.504201680672267</v>
       </c>
-      <c r="F13" s="131">
+      <c r="F13" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>6.1757983193277308</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>38.679999999999993</v>
       </c>
@@ -11049,38 +11046,38 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>78.857142857142861</v>
       </c>
-      <c r="F14" s="131">
+      <c r="F14" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>14.982857142857144</v>
       </c>
-      <c r="G14" s="131">
+      <c r="G14" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>93.84</v>
       </c>
       <c r="H14" s="117"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="133" t="s">
+      <c r="A15" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="135" t="s">
+      <c r="D15" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="134">
+      <c r="E15" s="132">
         <f>SUM(E13:E14)</f>
         <v>111.36134453781513</v>
       </c>
-      <c r="F15" s="134">
+      <c r="F15" s="132">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>21.158655462184875</v>
       </c>
-      <c r="G15" s="134">
+      <c r="G15" s="132">
         <f>SUM(G13:G14)</f>
         <v>132.51999999999998</v>
       </c>
@@ -11104,11 +11101,11 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>402.60504201680675</v>
       </c>
-      <c r="F16" s="131">
+      <c r="F16" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>76.494957983193288</v>
       </c>
-      <c r="G16" s="131">
+      <c r="G16" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>479.1</v>
       </c>
@@ -11132,11 +11129,11 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>734.3361344537816</v>
       </c>
-      <c r="F17" s="131">
+      <c r="F17" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>139.5238655462185</v>
       </c>
-      <c r="G17" s="131">
+      <c r="G17" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>873.86</v>
       </c>
@@ -11160,11 +11157,11 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>353.49579831932778</v>
       </c>
-      <c r="F18" s="131">
+      <c r="F18" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>67.164201680672278</v>
       </c>
-      <c r="G18" s="131">
+      <c r="G18" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>420.66</v>
       </c>
@@ -11188,11 +11185,11 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>47.579831932773111</v>
       </c>
-      <c r="F19" s="131">
+      <c r="F19" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>9.0401680672268903</v>
       </c>
-      <c r="G19" s="131">
+      <c r="G19" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>56.62</v>
       </c>
@@ -11216,11 +11213,11 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>179.49579831932775</v>
       </c>
-      <c r="F20" s="131">
+      <c r="F20" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>34.104201680672276</v>
       </c>
-      <c r="G20" s="131">
+      <c r="G20" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>213.60000000000002</v>
       </c>
@@ -11244,11 +11241,11 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>1332.9075630252103</v>
       </c>
-      <c r="F21" s="131">
+      <c r="F21" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>253.25243697478996</v>
       </c>
-      <c r="G21" s="131">
+      <c r="G21" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>1586.16</v>
       </c>
@@ -11272,11 +11269,11 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>162.0420168067227</v>
       </c>
-      <c r="F22" s="131">
+      <c r="F22" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>30.787983193277313</v>
       </c>
-      <c r="G22" s="131">
+      <c r="G22" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>192.83</v>
       </c>
@@ -11300,38 +11297,38 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>40804.100840336134</v>
       </c>
-      <c r="F23" s="131">
+      <c r="F23" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>7752.7791596638654</v>
       </c>
-      <c r="G23" s="131">
+      <c r="G23" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>48556.88</v>
       </c>
       <c r="H23" s="117"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="136" t="s">
+      <c r="A24" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="134" t="s">
+      <c r="C24" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="135" t="s">
+      <c r="D24" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="134">
+      <c r="E24" s="132">
         <f>SUM(E16:E23)</f>
         <v>44016.563025210082</v>
       </c>
-      <c r="F24" s="134">
+      <c r="F24" s="132">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>8363.1469747899155</v>
       </c>
-      <c r="G24" s="134">
+      <c r="G24" s="132">
         <f>SUM(G16:G23)</f>
         <v>52379.71</v>
       </c>
@@ -11355,38 +11352,38 @@
         <f>Tabelle1[[#This Row],[Netto Verkaufspreis]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>8403.361344537816</v>
       </c>
-      <c r="F25" s="131">
+      <c r="F25" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>1596.6386554621849</v>
       </c>
-      <c r="G25" s="131">
+      <c r="G25" s="117">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*1.19</f>
         <v>10000</v>
       </c>
       <c r="H25" s="117"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="136" t="s">
+      <c r="A26" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="137" t="s">
+      <c r="C26" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="138" t="s">
+      <c r="D26" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="137">
+      <c r="E26" s="135">
         <f>SUM(E12,E15,E24,E25)</f>
         <v>117991.8067226891</v>
       </c>
-      <c r="F26" s="137">
+      <c r="F26" s="135">
         <f>Tabelle1[[#This Row],[Gesamt Netto Verkaufspreis]]*0.19</f>
         <v>22418.443277310929</v>
       </c>
-      <c r="G26" s="137">
+      <c r="G26" s="135">
         <f>SUM(G12,G15,G24,G25)</f>
         <v>140410.25000000003</v>
       </c>

--- a/Challenge IV/handelswarenkalkulation_vxxx.xlsx
+++ b/Challenge IV/handelswarenkalkulation_vxxx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipal\IdeaProjects\Rechnernetze-I_ITECH\Challenge IV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B642CC99-310D-49D1-B64A-23F639F7A86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BBBCCC-BB78-4389-9603-549C946E96FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorwärtskalkulation" sheetId="1" r:id="rId1"/>
@@ -5687,8 +5687,8 @@
   </sheetPr>
   <dimension ref="B1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5766,11 +5766,11 @@
         <v>73</v>
       </c>
       <c r="E7" s="23">
-        <v>1.0960000000000001</v>
+        <v>1266.0999999999999</v>
       </c>
       <c r="F7" s="21">
         <f>E7</f>
-        <v>1.0960000000000001</v>
+        <v>1266.0999999999999</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="F8" s="13">
         <f>F7*E8/(1+E8)</f>
-        <v>0.17499159663865549</v>
+        <v>202.15042016806723</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -5808,7 +5808,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="21">
         <f>F7-F8</f>
-        <v>0.9210084033613446</v>
+        <v>1063.9495798319326</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -5886,7 +5886,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="21">
         <f>F9-F10-F11+F12</f>
-        <v>0.9210084033613446</v>
+        <v>1063.9495798319326</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -5924,7 +5924,7 @@
       <c r="E15" s="20"/>
       <c r="F15" s="21">
         <f>F13-F14</f>
-        <v>0.9210084033613446</v>
+        <v>1063.9495798319326</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -5962,7 +5962,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="21">
         <f>F15+F16</f>
-        <v>0.9210084033613446</v>
+        <v>1063.9495798319326</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="F18" s="13">
         <f>F17*E18</f>
-        <v>9.2100840336134471E-2</v>
+        <v>106.39495798319327</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -6000,7 +6000,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="21">
         <f>F17+F18</f>
-        <v>1.0131092436974791</v>
+        <v>1170.3445378151259</v>
       </c>
       <c r="G19" s="11"/>
     </row>
@@ -6020,7 +6020,7 @@
       </c>
       <c r="F20" s="13">
         <f>F19*E20</f>
-        <v>0.30393277310924371</v>
+        <v>351.10336134453775</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -6038,7 +6038,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="21">
         <f>F19+F20</f>
-        <v>1.3170420168067229</v>
+        <v>1521.4478991596636</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="F22" s="14">
         <f>F21/(1-E22-E23)*E22</f>
-        <v>7.0808710581006615E-2</v>
+        <v>81.798274148369018</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="F23" s="14">
         <f>F21/(1-E23-E22)*E23</f>
-        <v>2.8323484232402649E-2</v>
+        <v>32.719309659347608</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -6096,7 +6096,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="22">
         <f>F21+F22+F23</f>
-        <v>1.4161742116201324</v>
+        <v>1635.9654829673802</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="F25" s="14">
         <f>F24/(1-E25)*E25</f>
-        <v>7.4535484822112238E-2</v>
+        <v>86.103446471967402</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -6134,7 +6134,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="21">
         <f>F24+F25</f>
-        <v>1.4907096964422446</v>
+        <v>1722.0689294393476</v>
       </c>
       <c r="G26" s="11"/>
       <c r="I26" s="1" t="s">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="F27" s="13">
         <f>F26*E27</f>
-        <v>0.28323484232402646</v>
+        <v>327.19309659347607</v>
       </c>
       <c r="G27" s="11"/>
       <c r="I27" s="46" t="s">
@@ -6178,7 +6178,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="21">
         <f>F26+F27</f>
-        <v>1.7739445387662711</v>
+        <v>2049.2620260328235</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="F32" s="29">
         <f>F26/F17</f>
-        <v>1.6185625353706852</v>
+        <v>1.6185625353706847</v>
       </c>
       <c r="G32" s="30"/>
     </row>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="F34" s="29">
         <f>F28/F17</f>
-        <v>1.9260894170911154</v>
+        <v>1.9260894170911147</v>
       </c>
       <c r="G34" s="30"/>
     </row>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="F36" s="34">
         <f>F26-F17</f>
-        <v>0.56970129308090001</v>
+        <v>658.11934960741496</v>
       </c>
       <c r="G36" s="33"/>
     </row>
@@ -6291,7 +6291,7 @@
       </c>
       <c r="F38" s="35">
         <f>F36/F26</f>
-        <v>0.38216783216783234</v>
+        <v>0.38216783216783212</v>
       </c>
       <c r="G38" s="33"/>
     </row>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="F40" s="35">
         <f>F36/F17</f>
-        <v>0.61856253537068517</v>
+        <v>0.61856253537068473</v>
       </c>
       <c r="G40" s="33"/>
     </row>
@@ -6363,7 +6363,7 @@
   </sheetPr>
   <dimension ref="B1:M41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -6442,11 +6442,11 @@
         <v>24</v>
       </c>
       <c r="E7" s="23">
-        <v>1551.9420419022279</v>
+        <v>1390.35</v>
       </c>
       <c r="F7" s="50">
         <f>E7</f>
-        <v>1551.9420419022279</v>
+        <v>1390.35</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="F8" s="13">
         <f>F7*E8/(1+E8)</f>
-        <v>247.78906551380109</v>
+        <v>221.98865546218488</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -6484,7 +6484,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="21">
         <f>F7-F8</f>
-        <v>1304.1529763884269</v>
+        <v>1168.3613445378151</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -6504,7 +6504,7 @@
       </c>
       <c r="F10" s="13">
         <f>F9*E10</f>
-        <v>39.124589291652804</v>
+        <v>35.050840336134449</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -6522,7 +6522,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="21">
         <f>F9-F10</f>
-        <v>1265.0283870967739</v>
+        <v>1133.3105042016807</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="F12" s="13">
         <f>F11*E12</f>
-        <v>25.300567741935481</v>
+        <v>22.666210084033615</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="F13" s="13">
         <f>F11*E13</f>
-        <v>63.251419354838703</v>
+        <v>56.665525210084041</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -6580,7 +6580,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="21">
         <f>F11-F12-F13</f>
-        <v>1176.4763999999998</v>
+        <v>1053.9787689075631</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="F15" s="13">
         <f>F14*E15/(1+E15)</f>
-        <v>106.95239999999997</v>
+        <v>95.816251718869381</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -6618,7 +6618,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="21">
         <f>F14-F15</f>
-        <v>1069.5239999999999</v>
+        <v>958.16251718869376</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="F17" s="13">
         <f>F16*E17/(1+E17)</f>
-        <v>79.223999999999975</v>
+        <v>70.975001273236572</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -6656,7 +6656,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="21">
         <f>F16-F17</f>
-        <v>990.3</v>
+        <v>887.1875159154572</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -6694,7 +6694,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="21">
         <f>F18-F19</f>
-        <v>965.3</v>
+        <v>862.1875159154572</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -6714,7 +6714,7 @@
       </c>
       <c r="F21" s="14">
         <f>F20*E21/(1-E21)</f>
-        <v>19.700000000000003</v>
+        <v>17.595663590111371</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -6732,7 +6732,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="22">
         <f>F20+F21</f>
-        <v>985</v>
+        <v>879.78317950556857</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="F25" s="14">
         <f>(F22-E23)/(1-E24-E25)*E25</f>
-        <v>20</v>
+        <v>17.852717949093236</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25"/>
@@ -6816,7 +6816,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="21">
         <f>F22-F23+F24+F25</f>
-        <v>1000</v>
+        <v>892.63589745466186</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26"/>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="F27" s="13">
         <f>F26*E27</f>
-        <v>190</v>
+        <v>169.60082051638577</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27"/>
@@ -6870,7 +6870,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="21">
         <f>F26+F27</f>
-        <v>1190</v>
+        <v>1062.2367179710477</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="F36" s="34">
         <f>F9-F18</f>
-        <v>313.8529763884269</v>
+        <v>281.17382862235786</v>
       </c>
       <c r="G36" s="33"/>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="F38" s="35">
         <f>F36/F9</f>
-        <v>0.2406565656565656</v>
+        <v>0.24065656565656551</v>
       </c>
       <c r="G38" s="33"/>
     </row>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="F40" s="35">
         <f>F36/F18</f>
-        <v>0.31692716993681402</v>
+        <v>0.31692716993681386</v>
       </c>
       <c r="G40" s="33"/>
     </row>
@@ -9731,7 +9731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0E1454-62F5-4677-9A74-9AE140F0C5B3}">
   <dimension ref="A1:AX55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -10655,7 +10655,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
